--- a/WIP/High Stakes Gambling (Game Boy)/Docs/achievement_plan.xlsx
+++ b/WIP/High Stakes Gambling (Game Boy)/Docs/achievement_plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2AFDC1-7FB8-4FB8-80F6-1D8FE049958F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFE6F45-41C7-436B-8D5E-D89F385E9636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28485" yWindow="765" windowWidth="28485" windowHeight="15435" xr2:uid="{31BE8862-275F-4D32-B8EC-607D115D47ED}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{31BE8862-275F-4D32-B8EC-607D115D47ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Keep" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
     <sheet name="Testing" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Keep!$A$1:$J$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Keep!$A$1:$I$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Reject!$A$1:$I$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Testing!$A$1:$G$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Testing!$A$1:$G$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="300">
   <si>
     <t>Name</t>
   </si>
@@ -350,9 +350,6 @@
     <t>Progression</t>
   </si>
   <si>
-    <t>Intro</t>
-  </si>
-  <si>
     <t>Item Usage</t>
   </si>
   <si>
@@ -530,9 +527,6 @@
     <t>Sit Up Straight &amp; Don't Forget to Flush</t>
   </si>
   <si>
-    <t>[Competitive/Blackjack] Save time by having your opponent run out of cash before Hand 10 *player doesn't have much control over outcome</t>
-  </si>
-  <si>
     <t>[Competitive/Blackjack] Make your opponent bust with a "very non-suspicious" hand value of 35 points or more</t>
   </si>
   <si>
@@ -611,9 +605,6 @@
     <t>Craps Basics - Mama Told Me Not To</t>
   </si>
   <si>
-    <t>[Practice/Craps] Win a line, multi-roll, and single-roll bet on the same roll without losing any bets that roll</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -707,9 +698,6 @@
     <t>[Practice/Craps] Starting with $10,000, double your money</t>
   </si>
   <si>
-    <t>[Practice/Craps] Win multiple bets at once? (e.g. on a single roll, win at least 5? bets without losing any bets)</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
@@ -752,9 +740,6 @@
     <t>That's a Lot for the 1930s, Then Adjust For Inflation</t>
   </si>
   <si>
-    <t>[Competitive/Blackjack] Save time by having your opponent run out of cash before Hand 10 *nearly impossible/opponent reduces bet as money gets lower/player doesn't have much control over outcome</t>
-  </si>
-  <si>
     <t>Sounds Like Rain</t>
   </si>
   <si>
@@ -791,9 +776,6 @@
     <t>Craps Basics - Rollin', Rollin', Rollin'</t>
   </si>
   <si>
-    <t>[Practice/Craps] Win a line, multi-roll, and single-roll bet on the same dice roll without losing any bets that roll</t>
-  </si>
-  <si>
     <t>implement</t>
   </si>
   <si>
@@ -833,9 +815,6 @@
     <t>(Blackjack) use Ace or King cheat and get B.J.?</t>
   </si>
   <si>
-    <t>basically just luck</t>
-  </si>
-  <si>
     <t>(Blackjack) swap opponent's Blackjack</t>
   </si>
   <si>
@@ -908,10 +887,58 @@
     <t>false trigger when opponent only bet (not raised) then player won hand (b/c "Player's Last Actual Bet Amount" not cleared from previous hand)</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Badge</t>
+    <t>[Competitive/Any Mission] Accumulate at least $500K total end-of-mission winnings (excludes password-loaded winnings)</t>
+  </si>
+  <si>
+    <t>easy/limit achievement spam</t>
+  </si>
+  <si>
+    <t>[Any Mode/Any Poker] Win hand with Straight (5x payout in Video Poker) or Flush (8x)</t>
+  </si>
+  <si>
+    <t>[Any Mode/Any Poker] Win hand with Full House (20x payout in Video Poker) or 4 of a Kind (50x)</t>
+  </si>
+  <si>
+    <t>[Any Mode/Any Poker] Win hand with Straight Flush (100x payout) or Royal Flush (250x)</t>
+  </si>
+  <si>
+    <t>AnyP</t>
+  </si>
+  <si>
+    <t>[Competitive/Mission 4] Complete Mission 4 with at least 350K in cash winnings</t>
+  </si>
+  <si>
+    <t>[Competitive/Mission 3] Complete Mission 3 in 6 hands or less of Draw Poker</t>
+  </si>
+  <si>
+    <t>Name TBD</t>
+  </si>
+  <si>
+    <t>[Competitive/Blackjack] Save time by having your opponent run out of cash before Hand 10</t>
+  </si>
+  <si>
+    <t>nearly impossible/opponent reduces bet as money gets lower/player has little control over outcome</t>
+  </si>
+  <si>
+    <t>[Competitive/Draw Poker] win without losing a single hand</t>
+  </si>
+  <si>
+    <t>probably considered bad design b/c making player do silly stuff without any in-game effect</t>
+  </si>
+  <si>
+    <t>[Practice/Craps] Bet on every possible bet at once</t>
+  </si>
+  <si>
+    <t>[Practice/Craps] Have exactly 9 bets on the table and win them all on the same roll</t>
+  </si>
+  <si>
+    <t>[Practice/Craps] Win a line, multi-roll, and single-roll bet on the same roll (without any other bets on the table)</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>just luck/no challenge</t>
   </si>
 </sst>
 </file>
@@ -989,7 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1003,9 +1030,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1389,11 +1413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,12 +1431,11 @@
     <col min="7" max="7" width="68" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1424,10 +1447,10 @@
         <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -1438,11 +1461,8 @@
       <c r="I1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1450,16 +1470,16 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1468,7 +1488,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1476,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
         <v>61</v>
@@ -1497,7 +1517,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1505,16 +1525,16 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
         <v>38</v>
@@ -1523,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1534,16 +1554,16 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1552,7 +1572,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1560,13 +1580,13 @@
         <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
@@ -1575,13 +1595,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>214</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1589,13 +1606,13 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
@@ -1607,10 +1624,10 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1618,16 +1635,16 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1636,7 +1653,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1644,25 +1661,25 @@
         <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1670,16 +1687,16 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
         <v>102</v>
       </c>
       <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" t="s">
         <v>112</v>
-      </c>
-      <c r="F10" t="s">
-        <v>113</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1687,25 +1704,22 @@
       <c r="I10" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
         <v>51</v>
@@ -1716,11 +1730,8 @@
       <c r="I11" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1728,16 +1739,16 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
         <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1745,11 +1756,8 @@
       <c r="I12" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1757,16 +1765,16 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
         <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -1774,11 +1782,8 @@
       <c r="I13" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1786,16 +1791,16 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
       </c>
       <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" t="s">
         <v>112</v>
-      </c>
-      <c r="F14" t="s">
-        <v>113</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1803,11 +1808,8 @@
       <c r="I14" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1815,13 +1817,13 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
         <v>51</v>
@@ -1832,11 +1834,8 @@
       <c r="I15" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1844,16 +1843,16 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
         <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1861,11 +1860,8 @@
       <c r="I16" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1873,16 +1869,16 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
         <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -1890,11 +1886,8 @@
       <c r="I17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1902,16 +1895,16 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
         <v>102</v>
       </c>
       <c r="E18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" t="s">
         <v>112</v>
-      </c>
-      <c r="F18" t="s">
-        <v>113</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -1919,11 +1912,8 @@
       <c r="I18" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1931,13 +1921,13 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
         <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
         <v>51</v>
@@ -1948,11 +1938,8 @@
       <c r="I19" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1960,16 +1947,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
@@ -1980,11 +1967,8 @@
       <c r="I20" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1992,16 +1976,16 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
         <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -2009,11 +1993,8 @@
       <c r="I21" t="s">
         <v>90</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2021,16 +2002,16 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
         <v>102</v>
       </c>
       <c r="E22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" t="s">
         <v>112</v>
-      </c>
-      <c r="F22" t="s">
-        <v>113</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -2038,11 +2019,8 @@
       <c r="I22" t="s">
         <v>90</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2050,13 +2028,13 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" t="s">
         <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
         <v>51</v>
@@ -2067,11 +2045,8 @@
       <c r="I23" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2079,16 +2054,16 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
         <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H24">
         <v>10</v>
@@ -2096,11 +2071,8 @@
       <c r="I24" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2108,16 +2080,16 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
         <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H25">
         <v>10</v>
@@ -2125,11 +2097,8 @@
       <c r="I25" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2137,16 +2106,16 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
         <v>102</v>
       </c>
       <c r="E26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" t="s">
         <v>112</v>
-      </c>
-      <c r="F26" t="s">
-        <v>113</v>
       </c>
       <c r="H26">
         <v>10</v>
@@ -2154,11 +2123,8 @@
       <c r="I26" t="s">
         <v>90</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2166,19 +2132,19 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D27" t="s">
         <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
         <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -2186,28 +2152,25 @@
       <c r="I27" t="s">
         <v>90</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D28" t="s">
         <v>102</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
@@ -2218,11 +2181,8 @@
       <c r="I28" t="s">
         <v>90</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2230,19 +2190,19 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
         <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -2250,11 +2210,8 @@
       <c r="I29" t="s">
         <v>90</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2262,16 +2219,16 @@
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
         <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H30">
         <v>25</v>
@@ -2279,11 +2236,8 @@
       <c r="I30" t="s">
         <v>90</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2291,25 +2245,25 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" t="s">
         <v>112</v>
-      </c>
-      <c r="F31" t="s">
-        <v>113</v>
       </c>
       <c r="H31">
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2317,25 +2271,25 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
         <v>112</v>
-      </c>
-      <c r="F32" t="s">
-        <v>113</v>
       </c>
       <c r="H32">
         <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2343,16 +2297,16 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" t="s">
         <v>112</v>
-      </c>
-      <c r="F33" t="s">
-        <v>113</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -2361,7 +2315,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2369,16 +2323,16 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" t="s">
         <v>112</v>
-      </c>
-      <c r="F34" t="s">
-        <v>113</v>
       </c>
       <c r="G34" t="s">
         <v>43</v>
@@ -2390,21 +2344,21 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
         <v>51</v>
@@ -2416,7 +2370,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2424,16 +2378,16 @@
         <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G36" t="s">
         <v>85</v>
@@ -2442,10 +2396,10 @@
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2453,39 +2407,39 @@
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C38" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F38" t="s">
         <v>51</v>
@@ -2494,10 +2448,10 @@
         <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2505,13 +2459,13 @@
         <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" t="s">
         <v>51</v>
@@ -2523,13 +2477,10 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>214</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2537,13 +2488,13 @@
         <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F40" t="s">
         <v>51</v>
@@ -2552,13 +2503,10 @@
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>214</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2566,13 +2514,13 @@
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F41" t="s">
         <v>51</v>
@@ -2581,13 +2529,10 @@
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>214</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2595,13 +2540,13 @@
         <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F42" t="s">
         <v>51</v>
@@ -2613,13 +2558,10 @@
         <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>214</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2627,94 +2569,94 @@
         <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>284</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F44" t="s">
-        <v>115</v>
+        <v>287</v>
       </c>
       <c r="H44">
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F45" t="s">
-        <v>115</v>
+        <v>287</v>
       </c>
       <c r="H45">
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F46" t="s">
-        <v>114</v>
+        <v>287</v>
       </c>
       <c r="G46" t="s">
         <v>84</v>
@@ -2723,36 +2665,36 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H47">
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2760,16 +2702,16 @@
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H48">
         <v>5</v>
@@ -2778,7 +2720,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2786,42 +2728,42 @@
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H49">
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G50" t="s">
         <v>87</v>
@@ -2830,30 +2772,30 @@
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F51" t="s">
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -2862,7 +2804,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2870,19 +2812,19 @@
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G52" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H52">
         <v>10</v>
@@ -2890,40 +2832,34 @@
       <c r="I52" t="s">
         <v>90</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C53" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H53">
         <v>25</v>
       </c>
       <c r="I53" t="s">
-        <v>214</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2931,16 +2867,16 @@
         <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H54">
         <v>10</v>
@@ -2949,7 +2885,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2957,16 +2893,16 @@
         <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55" t="s">
         <v>112</v>
-      </c>
-      <c r="F55" t="s">
-        <v>113</v>
       </c>
       <c r="H55">
         <v>10</v>
@@ -2975,7 +2911,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2983,91 +2919,91 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" t="s">
         <v>112</v>
-      </c>
-      <c r="F56" t="s">
-        <v>113</v>
       </c>
       <c r="H56">
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
         <v>115</v>
@@ -3076,27 +3012,27 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H60">
         <v>10</v>
@@ -3105,79 +3041,76 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>290</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
-      </c>
-      <c r="G61" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="H61">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I61" t="s">
         <v>90</v>
       </c>
-      <c r="J61" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
         <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>115</v>
+      </c>
+      <c r="G62" t="s">
+        <v>28</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I62" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C63" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F63" t="s">
         <v>82</v>
@@ -3189,27 +3122,24 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F64" t="s">
         <v>82</v>
-      </c>
-      <c r="G64" t="s">
-        <v>187</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -3223,22 +3153,22 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F65" t="s">
         <v>82</v>
       </c>
       <c r="G65" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -3252,19 +3182,22 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C66" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F66" t="s">
         <v>82</v>
+      </c>
+      <c r="G66" t="s">
+        <v>186</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -3278,22 +3211,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C67" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D67" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F67" t="s">
         <v>82</v>
-      </c>
-      <c r="G67" t="s">
-        <v>186</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -3307,22 +3237,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F68" t="s">
         <v>82</v>
       </c>
+      <c r="G68" t="s">
+        <v>184</v>
+      </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
         <v>90</v>
@@ -3333,16 +3266,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D69" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="E69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F69" t="s">
         <v>82</v>
@@ -3359,25 +3292,25 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" t="s">
         <v>180</v>
       </c>
-      <c r="C70" t="s">
-        <v>250</v>
-      </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>298</v>
       </c>
       <c r="E70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F70" t="s">
         <v>82</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3385,16 +3318,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F71" t="s">
         <v>82</v>
@@ -3403,7 +3336,7 @@
         <v>5</v>
       </c>
       <c r="I71" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3411,16 +3344,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F72" t="s">
         <v>82</v>
@@ -3429,11 +3362,37 @@
         <v>10</v>
       </c>
       <c r="I72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" t="s">
+        <v>110</v>
+      </c>
+      <c r="F73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J72" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}"/>
+  <autoFilter ref="A1:I73" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3442,11 +3401,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334CAE3C-4AD9-46C5-82BD-40A7611E1FF0}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3473,10 +3432,10 @@
         <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -3485,10 +3444,10 @@
         <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3496,16 +3455,16 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3514,7 +3473,7 @@
         <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3525,13 +3484,13 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3540,7 +3499,7 @@
         <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3551,10 +3510,10 @@
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -3566,7 +3525,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3577,13 +3536,13 @@
         <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3592,7 +3551,7 @@
         <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3603,10 +3562,10 @@
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
         <v>82</v>
@@ -3618,7 +3577,7 @@
         <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3626,16 +3585,16 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -3647,7 +3606,7 @@
         <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3655,16 +3614,16 @@
         <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
         <v>112</v>
-      </c>
-      <c r="E8" t="s">
-        <v>113</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -3673,7 +3632,7 @@
         <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3681,16 +3640,16 @@
         <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
         <v>112</v>
-      </c>
-      <c r="E9" t="s">
-        <v>113</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -3699,7 +3658,7 @@
         <v>92</v>
       </c>
       <c r="I9" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3710,10 +3669,10 @@
         <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -3730,16 +3689,16 @@
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -3751,7 +3710,7 @@
         <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3762,13 +3721,13 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -3777,7 +3736,7 @@
         <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3788,13 +3747,13 @@
         <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
         <v>68</v>
@@ -3806,7 +3765,7 @@
         <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3817,13 +3776,13 @@
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -3832,7 +3791,7 @@
         <v>92</v>
       </c>
       <c r="I14" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3843,13 +3802,13 @@
         <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
         <v>58</v>
@@ -3861,7 +3820,7 @@
         <v>92</v>
       </c>
       <c r="I15" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3872,13 +3831,13 @@
         <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
         <v>73</v>
@@ -3890,7 +3849,7 @@
         <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3898,16 +3857,16 @@
         <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>99</v>
@@ -3916,7 +3875,7 @@
         <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3924,13 +3883,13 @@
         <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -3947,16 +3906,16 @@
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
         <v>85</v>
@@ -3970,16 +3929,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
         <v>92</v>
@@ -3987,13 +3946,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
         <v>82</v>
@@ -4005,7 +3964,7 @@
         <v>92</v>
       </c>
       <c r="I21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4013,16 +3972,16 @@
         <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -4034,27 +3993,27 @@
         <v>90</v>
       </c>
       <c r="I22" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G23">
         <v>25</v>
@@ -4063,27 +4022,27 @@
         <v>92</v>
       </c>
       <c r="I23" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
         <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -4092,24 +4051,24 @@
         <v>92</v>
       </c>
       <c r="I24" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G25">
         <v>25</v>
@@ -4118,7 +4077,79 @@
         <v>92</v>
       </c>
       <c r="I25" t="s">
-        <v>276</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4133,7 +4164,7 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4150,22 +4181,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
         <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -4177,18 +4208,18 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="F3">
         <f>COUNTIF(Keep!D:D,"="&amp;E3)</f>
         <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K3">
         <f>COUNT(Keep!H:H)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -4207,11 +4238,11 @@
         <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K4">
         <f>SUM(Keep!H:H)</f>
-        <v>429</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -4223,14 +4254,14 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5">
         <f>SUM(H5:H7)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H5">
         <f>COUNTIF(Keep!D:D,"="&amp;G5)</f>
@@ -4246,18 +4277,18 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6">
         <f>COUNTIF(Keep!D:D,"="&amp;G6)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K6">
         <f>COUNTIFS(Testing!C:C,"=Yes",Testing!D:D,"&lt;&gt;Yes")</f>
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -4266,17 +4297,17 @@
       </c>
       <c r="C7">
         <f>COUNTIF(Keep!H:H,"="&amp;B7)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H7">
         <f>COUNTIF(Keep!D:D,"="&amp;G7)</f>
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K7">
         <f>COUNTIF(Testing!C:C,"=No") + COUNTIF(Testing!C:C,"=No (retest)") + COUNTIF(Testing!D:D,"=Yes") - COUNTIFS(Testing!C:C,"=No",Testing!D:D,"=Yes") - COUNTIFS(Testing!C:C,"=No (retest)",Testing!D:D,"=Yes")</f>
@@ -4289,21 +4320,21 @@
       </c>
       <c r="C8">
         <f>COUNTIF(Keep!H:H,"="&amp;B8)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8">
         <f>COUNTIF(Keep!D:D,"="&amp;E8)</f>
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K8">
         <f>K3-K6-K7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -4315,11 +4346,11 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9">
         <f>COUNTIF(Keep!D:D,"="&amp;E9)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -4342,15 +4373,15 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13">
         <f>COUNTIF(Keep!F:F,"="&amp;E13)</f>
@@ -4368,20 +4399,20 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15">
         <f>COUNTIF(Keep!F:F,"="&amp;E15)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16">
         <f>COUNTIF(Keep!F:F,"="&amp;E16)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
@@ -4395,20 +4426,20 @@
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c r="F18">
         <f>COUNTIF(Keep!F:F,"="&amp;E18)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19">
         <f>COUNTIF(Keep!F:F,"="&amp;E19)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4424,11 +4455,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4217636D-3F58-4C31-B7F4-A1FB83661293}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4450,24 +4481,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4475,7 +4506,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
@@ -4489,7 +4520,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>90</v>
@@ -4503,7 +4534,7 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
         <v>90</v>
@@ -4517,7 +4548,7 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -4531,7 +4562,7 @@
         <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -4545,7 +4576,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
@@ -4559,7 +4590,7 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
@@ -4573,7 +4604,7 @@
         <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>90</v>
@@ -4592,7 +4623,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
         <v>90</v>
@@ -4603,10 +4634,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
         <v>90</v>
@@ -4620,7 +4651,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
         <v>90</v>
@@ -4634,7 +4665,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>90</v>
@@ -4648,7 +4679,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
         <v>90</v>
@@ -4662,7 +4693,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
         <v>90</v>
@@ -4676,7 +4707,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
         <v>90</v>
@@ -4690,7 +4721,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
         <v>90</v>
@@ -4704,7 +4735,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
         <v>90</v>
@@ -4718,7 +4749,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
         <v>90</v>
@@ -4732,7 +4763,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
         <v>90</v>
@@ -4746,7 +4777,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
         <v>90</v>
@@ -4757,10 +4788,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
         <v>90</v>
@@ -4774,7 +4805,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
         <v>90</v>
@@ -4788,7 +4819,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
         <v>90</v>
@@ -4802,7 +4833,7 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
         <v>90</v>
@@ -4816,7 +4847,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
         <v>90</v>
@@ -4830,7 +4861,7 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
         <v>90</v>
@@ -4841,10 +4872,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
         <v>90</v>
@@ -4858,7 +4889,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
         <v>90</v>
@@ -4872,7 +4903,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
         <v>90</v>
@@ -4883,7 +4914,7 @@
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4891,13 +4922,13 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
         <v>90</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4905,7 +4936,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
         <v>90</v>
@@ -4916,7 +4947,7 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
         <v>90</v>
@@ -4927,7 +4958,7 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
         <v>90</v>
@@ -4935,10 +4966,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
         <v>90</v>
@@ -4949,13 +4980,13 @@
         <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C39" t="s">
         <v>90</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -4963,7 +4994,7 @@
         <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s">
         <v>90</v>
@@ -4972,23 +5003,23 @@
         <v>90</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B42" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C42" t="s">
         <v>90</v>
@@ -4999,7 +5030,7 @@
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
         <v>90</v>
@@ -5010,7 +5041,7 @@
         <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
         <v>90</v>
@@ -5021,7 +5052,7 @@
         <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
         <v>90</v>
@@ -5032,7 +5063,7 @@
         <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
         <v>90</v>
@@ -5043,7 +5074,7 @@
         <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
         <v>90</v>
@@ -5051,96 +5082,96 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>159</v>
       </c>
-      <c r="B49" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>160</v>
-      </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C53" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>208</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>209</v>
       </c>
-      <c r="C55" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>211</v>
-      </c>
-      <c r="B56" t="s">
-        <v>212</v>
-      </c>
       <c r="C56" t="s">
         <v>90</v>
       </c>
@@ -5148,80 +5179,86 @@
         <v>90</v>
       </c>
       <c r="F56" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B59" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C59" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" t="s">
-        <v>280</v>
-      </c>
-      <c r="C60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="C62" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="C64" t="s">
         <v>90</v>
@@ -5229,27 +5266,27 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>288</v>
+        <v>272</v>
+      </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" t="s">
+        <v>90</v>
+      </c>
+      <c r="G65" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="C66" t="s">
         <v>90</v>
@@ -5257,54 +5294,42 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>279</v>
-      </c>
-      <c r="C67" t="s">
-        <v>90</v>
-      </c>
-      <c r="E67" t="s">
-        <v>90</v>
-      </c>
-      <c r="G67" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>290</v>
+      </c>
+      <c r="B68" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>22</v>
       </c>
-      <c r="B68" t="s">
-        <v>199</v>
-      </c>
-      <c r="C68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="B69" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>179</v>
-      </c>
-      <c r="B70" t="s">
-        <v>241</v>
-      </c>
-      <c r="C70" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B71" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="C71" t="s">
         <v>90</v>
@@ -5312,10 +5337,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="C72" t="s">
         <v>90</v>
@@ -5323,10 +5348,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="C73" t="s">
         <v>90</v>
@@ -5334,10 +5359,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B74" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="C74" t="s">
         <v>90</v>
@@ -5345,10 +5370,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B75" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
@@ -5356,55 +5381,49 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>253</v>
+        <v>241</v>
+      </c>
+      <c r="C76" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
-      </c>
-      <c r="C77" t="s">
-        <v>90</v>
+        <v>181</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" t="s">
         <v>180</v>
       </c>
-      <c r="B78" t="s">
-        <v>190</v>
-      </c>
       <c r="C78" t="s">
         <v>90</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>251</v>
+      <c r="G78" s="6" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>297</v>
       </c>
       <c r="C79" t="s">
         <v>90</v>
@@ -5413,22 +5432,39 @@
         <v>90</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="C80" t="s">
         <v>90</v>
       </c>
+      <c r="D80" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G80" xr:uid="{4217636D-3F58-4C31-B7F4-A1FB83661293}"/>
+  <autoFilter ref="A1:G81" xr:uid="{4217636D-3F58-4C31-B7F4-A1FB83661293}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/WIP/High Stakes Gambling (Game Boy)/Docs/achievement_plan.xlsx
+++ b/WIP/High Stakes Gambling (Game Boy)/Docs/achievement_plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFE6F45-41C7-436B-8D5E-D89F385E9636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78F511C-330A-4223-9503-BD389999308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{31BE8862-275F-4D32-B8EC-607D115D47ED}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{31BE8862-275F-4D32-B8EC-607D115D47ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Keep" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
     <sheet name="Testing" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Keep!$A$1:$I$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Keep!$A$1:$I$71</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Reject!$A$1:$I$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Testing!$A$1:$G$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Testing!$A$1:$H$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="320">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Alternate Names</t>
   </si>
   <si>
-    <t>Machine Gun Max, Meet Bulletproof Bob</t>
-  </si>
-  <si>
     <t>Loserus Maximus</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>Ding, Don Done</t>
   </si>
   <si>
-    <t>Al Cologne Now Sleeps With The Fishes</t>
-  </si>
-  <si>
     <t>Blood Money Transfusion</t>
   </si>
   <si>
@@ -128,21 +122,6 @@
     <t>There's a New Boss in Town</t>
   </si>
   <si>
-    <t>Blackjack Basics - Name of the Game</t>
-  </si>
-  <si>
-    <t>Blackjack Basics - Double Trouble</t>
-  </si>
-  <si>
-    <t>Blackjack Basics - Make Like a Banana and...</t>
-  </si>
-  <si>
-    <t>Slots Basics - One-Armed Banditry</t>
-  </si>
-  <si>
-    <t>Video Poker Basics - Can You Hold, Please?</t>
-  </si>
-  <si>
     <t>Not Much Else to It</t>
   </si>
   <si>
@@ -152,9 +131,6 @@
     <t>Face Cards = Scarface'd</t>
   </si>
   <si>
-    <t>Blackjack Basics - Psychic Training</t>
-  </si>
-  <si>
     <t>Are You Psychic?, Usually Not Worth It</t>
   </si>
   <si>
@@ -320,12 +296,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Slots Basics - Cherry Picking</t>
-  </si>
-  <si>
-    <t>Video Poker Basics - Paired Up</t>
-  </si>
-  <si>
     <t>Fruit Salad</t>
   </si>
   <si>
@@ -392,129 +362,15 @@
     <t>Any</t>
   </si>
   <si>
-    <t>[Practice/Blackjack] Score a Blackjack (two-card 21 - increases payout by half)</t>
-  </si>
-  <si>
-    <t>[Practice/Blackjack] Double down and win the hand (bet doubled, dealt exactly one more card)</t>
-  </si>
-  <si>
-    <t>[Practice/Blackjack] Buy or refuse insurance and have it pay off (dealer has face-up ace - costs half your bet, refunds original bet if dealer has B.J.)</t>
-  </si>
-  <si>
-    <t>[Practice/Blackjack] Split and win both hands (two same-value cards - play them as separate hands, each with original bet)</t>
-  </si>
-  <si>
-    <t>[Practice/Slots] Win any line with 1 Cherry (2x payout) or 2 Cherry (5x)</t>
-  </si>
-  <si>
-    <t>[Practice/Slots] Bet on all three lines and win at least two of them on the same spin</t>
-  </si>
-  <si>
-    <t>[Competitive/Blackjack] Use See Next Card when your hand value is 17 or less, revealing a card that would make you bust, then win the hand</t>
-  </si>
-  <si>
-    <t>[Competitive/Blackjack] Use See Deal Down when your hand value is 12 or more, revealing a higher-point card total, then win the hand</t>
-  </si>
-  <si>
-    <t>[Competitive/Blackjack] Use Swap Card to raise your opponent's hand value above 21 points</t>
-  </si>
-  <si>
     <t>[Competitive/Slots] win with cheat</t>
   </si>
   <si>
     <t>[Competitive/Video Poker] steal a Joker</t>
   </si>
   <si>
-    <t>[Any Mode/Slots] Win any line with 3 Cherry (10x payout) or 2 Orange (12x)</t>
-  </si>
-  <si>
-    <t>[Any Mode/Slots] Win any line with 3 Orange (15x payout), 3 Plum (20x), or 3 Melon (25x)</t>
-  </si>
-  <si>
-    <t>[Any Mode/Slots] Win any line with 3 Bell (50x payout), 3 Bar (100x), or 777 (200x)</t>
-  </si>
-  <si>
-    <t>[Any Mode/Slots] Win the jackpot with a 3rd-line 777</t>
-  </si>
-  <si>
-    <t>[Competitive/Blackjack] Score at least five Blackjacks in one game vs. any gangster</t>
-  </si>
-  <si>
-    <t>[Competitive/Draw Poker] win without losing a single hand *Blackjack can auto-lose to dealer</t>
-  </si>
-  <si>
-    <t>[Competitive/All Missions] Defeat all five gangsters without using a password</t>
-  </si>
-  <si>
-    <t>[Competitive/Any Mission] Accumulate at least $1 million total end-of-mission winnings (excludes password-loaded winnings)</t>
-  </si>
-  <si>
     <t>[Competitive/All Missions] Defeat all five gangsters without losing any casino games (nor using a password)</t>
   </si>
   <si>
-    <t>[Competitive/Mission 1] Defeat Machine Gun Max (win at Draw Poker)</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 2] Defeat Suitcase Sam (win at Draw Poker)</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 3] Defeat Hitman Harry (win at Draw Poker)</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 4] Defeat Lucky Louis (win at Draw Poker)</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 5] Defeat Al Cologne (win at Draw Poker)</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 1] Win at Blackjack vs. Machine Gun Max</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 1] Win at Slots vs. Machine Gun Max</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 1] Win at Video Poker vs. Machine Gun Max</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 2] Win at Blackjack vs. Suitcase Sam</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 2] Win at Slots vs. Suitcase Sam</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 2] Win at Video Poker vs. Suitcase Sam</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 3] Win at Blackjack vs. Hitman Harry</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 3] Win at Slots vs. Hitman Harry</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 3] Win at Video Poker vs. Hitman Harry</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 4] Win at Slots vs. Lucky Louis</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 4] Win at Video Poker vs. Lucky Louis</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 5] Win at Blackjack vs. Al Cologne</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 5] Win at Slots vs. Al Cologne</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 5] Win at Video Poker vs. Al Cologne</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 4] Win at Blackjack vs. Lucky Louis</t>
-  </si>
-  <si>
-    <t>[Practice/Video Poker] Win hand with 1 Pair of Jacks or better (1x payout) or 2 Pair (2x)</t>
-  </si>
-  <si>
     <t>Now We're Talkin'</t>
   </si>
   <si>
@@ -527,72 +383,27 @@
     <t>Sit Up Straight &amp; Don't Forget to Flush</t>
   </si>
   <si>
-    <t>[Competitive/Blackjack] Make your opponent bust with a "very non-suspicious" hand value of 35 points or more</t>
-  </si>
-  <si>
-    <t>[Any Mode/Video Poker] Win the jackpot with 5 of a Kind</t>
-  </si>
-  <si>
-    <t>[Any Mode/Video Poker] Win hand with Straight Flush (100x payout) or Royal Flush (250x)</t>
-  </si>
-  <si>
-    <t>[Any Mode/Draw Poker] Win hand with Full House (20x payout in Video Poker) or 4 of a Kind (50x)</t>
-  </si>
-  <si>
-    <t>[Any Mode/Draw Poker] Win hand with Straight (5x payout in Video Poker) or Flush (8x)</t>
-  </si>
-  <si>
-    <t>[Any Mode/Draw Poker] Win hand with 3 of a Kind (4x payout in Video Poker)</t>
-  </si>
-  <si>
-    <t>Just Call It Beginner's Luck</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
     <t>Easter Egg</t>
   </si>
   <si>
-    <t>Craps Basics - Hold the Line</t>
-  </si>
-  <si>
     <t>Baby Needs New Shoes!</t>
   </si>
   <si>
     <t>Limited Time Offer</t>
   </si>
   <si>
-    <t>[Competitive/Slots] Purchase a bonus item (Spin 3 or 7), place it (with the D-pad), and win the line</t>
-  </si>
-  <si>
     <t>[Competitive/Blackjack] win with Ace/King? (1st card?)</t>
   </si>
   <si>
     <t>Gold-Plated Arm</t>
   </si>
   <si>
-    <t>Craps Basics - It's Only Natural</t>
-  </si>
-  <si>
     <t>Putting It All Together</t>
   </si>
   <si>
-    <t>Craps Basics - Got the Craps</t>
-  </si>
-  <si>
-    <t>[Practice/Craps] Win at least 3 different multi-roll bets (Place #, Buy #, Lay #, Hard #, Big #)</t>
-  </si>
-  <si>
-    <t>[Practice/Craps] Win at least 3 different single-roll bets (Craps #, Seven, Yoleven, Any Craps, C &amp; E, Horn, Field)</t>
-  </si>
-  <si>
-    <t>Craps Basics - OK, OK, I Get the Point</t>
-  </si>
-  <si>
-    <t>Craps Basics - What's in the Box?</t>
-  </si>
-  <si>
     <t>Dark-Sided!</t>
   </si>
   <si>
@@ -602,9 +413,6 @@
     <t>It's Half-Empty</t>
   </si>
   <si>
-    <t>Craps Basics - Mama Told Me Not To</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -617,9 +425,6 @@
     <t>Points:</t>
   </si>
   <si>
-    <t>[Competitive/Video Poker] Have 3+ Jokers</t>
-  </si>
-  <si>
     <t>There's a New Boss in Town, Al Col-owned</t>
   </si>
   <si>
@@ -629,12 +434,6 @@
     <t>...End/Win</t>
   </si>
   <si>
-    <t>[Competitive/All Missions] Defeat Al Cologne in all four casino games (in a single playthrough)</t>
-  </si>
-  <si>
-    <t>[Competitive/Video Poker] Use Swap Card to swap back a card taken from you</t>
-  </si>
-  <si>
     <t>Close Call</t>
   </si>
   <si>
@@ -650,54 +449,30 @@
     <t>Subcount</t>
   </si>
   <si>
-    <t>[Competitive/Draw Poker] Defeat any gangster by making him run out of cash (during Draw Poker)</t>
-  </si>
-  <si>
-    <t>[Competitive/Draw Poker] Defeat any gangster by making him run out of Draw Poker Credits</t>
-  </si>
-  <si>
     <t>Bluff Enough?</t>
   </si>
   <si>
-    <t>[Competitive/Draw Poker] Place or raise a bet that causes your opponent to fold while your hand rank is less than one pair *AI folding based mostly/only on their hand rather than bet amount?</t>
-  </si>
-  <si>
     <t>The Frugal Method, Low Roller, Frugal Spender/Lifestyle, The House Always Wins, Sometimes Lower Is Better</t>
   </si>
   <si>
     <t>Frugal Strats</t>
   </si>
   <si>
-    <t>[Competitive/Slots] Win at slots without buying any cheats/bonus items nor placing any bets over $10 (3x multiplier allowed)</t>
-  </si>
-  <si>
     <t>Subtype</t>
   </si>
   <si>
     <t>Maybe</t>
   </si>
   <si>
-    <t>[Competitive/Draw Poker] When your opponent raises your bet, keep playing the hand and win it</t>
-  </si>
-  <si>
     <t>False Trigger?</t>
   </si>
   <si>
     <t>Triggered?</t>
   </si>
   <si>
-    <t>[Practice/Video Poker] Press the (H)old button underneath at least one card and have a higher-scoring hand on the second draw</t>
-  </si>
-  <si>
-    <t>[Practice/Video Poker] Win hand with one pair of "Jacks or better" (1x payout) or two pair (2x)</t>
-  </si>
-  <si>
     <t>No (retest)</t>
   </si>
   <si>
-    <t>[Practice/Craps] Starting with $10,000, double your money</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
@@ -725,12 +500,6 @@
     <t>triggers whenever swap card used</t>
   </si>
   <si>
-    <t>[Any Mode/Slots] Win all 3 lines at once</t>
-  </si>
-  <si>
-    <t>[Competitive/Any Mission] Accumulate at least $1.5 million total end-of-mission winnings (excludes password-loaded winnings)</t>
-  </si>
-  <si>
     <t>High Stakes High Roller</t>
   </si>
   <si>
@@ -740,42 +509,9 @@
     <t>That's a Lot for the 1930s, Then Adjust For Inflation</t>
   </si>
   <si>
-    <t>Sounds Like Rain</t>
-  </si>
-  <si>
-    <t>[Any Mode/Video Poker] Win the jackpot with 5 of a Kind (requires 5x bet multiplier)</t>
-  </si>
-  <si>
-    <t>[Competitive/Blackjack] Have 8 cards in your Blackjack hand (bust allowed on last card)</t>
-  </si>
-  <si>
-    <t>[Practice/Craps] Win a "Pass" line bet by rolling a "natural" (7 or 11) on the come-out roll</t>
-  </si>
-  <si>
-    <t>[Practice/Craps] Win/push a "Don't Pass" line bet by rolling "craps" (2 or 3 to win, 12 to push) on the come-out roll</t>
-  </si>
-  <si>
-    <t>[Practice/Craps] Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a "Come" line bet by rolling 7 or 11</t>
-  </si>
-  <si>
-    <t>[Practice/Craps] Establish a "point number" (4-6 or 8-10) on the come-out roll, then win/push a "Don't Come" line bet by rolling 2, 3, or 12</t>
-  </si>
-  <si>
-    <t>[Practice/Craps] Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a "Pass" or "Pass Odds" line bet by rolling the point number</t>
-  </si>
-  <si>
-    <t>[Practice/Craps] Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a "Don't Pass" or "Don't Pass Odds" line bet by "sevening out" (roll a 7)</t>
-  </si>
-  <si>
     <t>Can I Go Home Now?, Silver Arm, What a Load of Craps</t>
   </si>
   <si>
-    <t>Craps Basics - Crapshoot</t>
-  </si>
-  <si>
-    <t>Craps Basics - Rollin', Rollin', Rollin'</t>
-  </si>
-  <si>
     <t>implement</t>
   </si>
   <si>
@@ -857,88 +593,413 @@
     <t>too simple/freebie</t>
   </si>
   <si>
-    <t>[Competitive/Mission 1] Complete Mission 1 without buying any cheats from Shady</t>
-  </si>
-  <si>
-    <t>[Competitive/Mssion 2] Complete Mission 2 while buying out every cheat from Shady (twice per casino game, from 0 to max qty)</t>
-  </si>
-  <si>
     <t>triggered when played 2nd joker (opponent had 1 joker as well) - unable to reproduce</t>
   </si>
   <si>
     <t>not fully implemented</t>
   </si>
   <si>
-    <t>[Practice/Craps] Win a "Don't Pass" line bet by rolling "craps" (2 or 3 to win, 12 to push) on the come-out roll</t>
-  </si>
-  <si>
-    <t>[Practice/Craps] Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a "Don't Come" line bet by rolling 2 or 3 (12 to push)</t>
-  </si>
-  <si>
-    <t>add Trigger?</t>
-  </si>
-  <si>
     <t>RATools codes it with multiple ResetIf instead of OrNext, so it may need manual tweaking - or use a PauseLock instead? (according to Jamiras, I shouldn't be concerned about this being less performant?)</t>
   </si>
   <si>
     <t>Louis the Not-So-Great</t>
   </si>
   <si>
-    <t>false trigger when opponent only bet (not raised) then player won hand (b/c "Player's Last Actual Bet Amount" not cleared from previous hand)</t>
-  </si>
-  <si>
     <t>[Competitive/Any Mission] Accumulate at least $500K total end-of-mission winnings (excludes password-loaded winnings)</t>
   </si>
   <si>
-    <t>easy/limit achievement spam</t>
-  </si>
-  <si>
-    <t>[Any Mode/Any Poker] Win hand with Straight (5x payout in Video Poker) or Flush (8x)</t>
-  </si>
-  <si>
-    <t>[Any Mode/Any Poker] Win hand with Full House (20x payout in Video Poker) or 4 of a Kind (50x)</t>
-  </si>
-  <si>
-    <t>[Any Mode/Any Poker] Win hand with Straight Flush (100x payout) or Royal Flush (250x)</t>
-  </si>
-  <si>
     <t>AnyP</t>
   </si>
   <si>
-    <t>[Competitive/Mission 4] Complete Mission 4 with at least 350K in cash winnings</t>
-  </si>
-  <si>
-    <t>[Competitive/Mission 3] Complete Mission 3 in 6 hands or less of Draw Poker</t>
-  </si>
-  <si>
-    <t>Name TBD</t>
-  </si>
-  <si>
     <t>[Competitive/Blackjack] Save time by having your opponent run out of cash before Hand 10</t>
   </si>
   <si>
     <t>nearly impossible/opponent reduces bet as money gets lower/player has little control over outcome</t>
   </si>
   <si>
-    <t>[Competitive/Draw Poker] win without losing a single hand</t>
-  </si>
-  <si>
     <t>probably considered bad design b/c making player do silly stuff without any in-game effect</t>
   </si>
   <si>
     <t>[Practice/Craps] Bet on every possible bet at once</t>
   </si>
   <si>
-    <t>[Practice/Craps] Have exactly 9 bets on the table and win them all on the same roll</t>
-  </si>
-  <si>
-    <t>[Practice/Craps] Win a line, multi-roll, and single-roll bet on the same roll (without any other bets on the table)</t>
-  </si>
-  <si>
     <t>Tutorial</t>
   </si>
   <si>
     <t>just luck/no challenge</t>
+  </si>
+  <si>
+    <t>[Practice] Slots - Win any line with 1 Cherry (2x payout) or 2 Cherry (5x)</t>
+  </si>
+  <si>
+    <t>[Practice] Slots - Bet on all three lines and win at least two of them on the same spin</t>
+  </si>
+  <si>
+    <t>Blackjack - Use See Next Card when your hand value is 17 or less, revealing a card that would make you bust, then win the hand</t>
+  </si>
+  <si>
+    <t>Blackjack - Use See Deal Down when your hand value is 12 or more, revealing a higher-point card total, then win the hand</t>
+  </si>
+  <si>
+    <t>Blackjack - Use Swap Card to raise your opponent's hand value above 21 points</t>
+  </si>
+  <si>
+    <t>Blackjack - Make your opponent bust with a "very non-suspicious" hand value of 35 points or more</t>
+  </si>
+  <si>
+    <t>Slots - Win any line with 3 Orange (15x payout), 3 Plum (20x), or 3 Melon (25x)</t>
+  </si>
+  <si>
+    <t>Slots - Win the jackpot with a 3rd-line 777</t>
+  </si>
+  <si>
+    <t>Video Poker - Win the jackpot with 5 of a Kind (requires 5x bet multiplier)</t>
+  </si>
+  <si>
+    <t>Slots - Purchase a bonus item (Spin 3 or 7), place it (with the D-pad), and win the line</t>
+  </si>
+  <si>
+    <t>Video Poker - Use Swap Card to swap back a card taken from you</t>
+  </si>
+  <si>
+    <t>Draw Poker - Defeat any gangster by making him run out of cash</t>
+  </si>
+  <si>
+    <t>Draw Poker - Defeat any gangster by making him run out of Draw Poker Credits</t>
+  </si>
+  <si>
+    <t>Slots - Beat your opponent without buying any cheats/bonus items nor placing any bets over $10 (3x multiplier allowed)</t>
+  </si>
+  <si>
+    <t>Draw Poker - When your opponent raises your bet, keep playing the hand and win it</t>
+  </si>
+  <si>
+    <t>Draw Poker - Place or raise a bet that causes your opponent to fold while your hand rank is less than one pair</t>
+  </si>
+  <si>
+    <t>*AI folding based mostly/only on their hand rather than bet amount?</t>
+  </si>
+  <si>
+    <t>Complete Mission 1 without buying any cheats from Shady</t>
+  </si>
+  <si>
+    <t>Craps - Win at least 3 different single-roll bets (Craps #, Seven, Yoleven, Any Craps, C &amp; E, Horn, Field)</t>
+  </si>
+  <si>
+    <t>Craps - Win at least 3 different multi-roll bets (Place #, Buy #, Lay #, Hard #, Big #)</t>
+  </si>
+  <si>
+    <t>Craps - Win a line, multi-roll, and single-roll bet on the same roll (without any other bets on the table)</t>
+  </si>
+  <si>
+    <t>Craps - Have exactly 9 bets on the table and win them all on the same roll</t>
+  </si>
+  <si>
+    <t>Craps - Starting with $10,000, double your money</t>
+  </si>
+  <si>
+    <t>Mission 1-1: Win at Blackjack vs. Machine Gun Max</t>
+  </si>
+  <si>
+    <t>Mission 1-2: Win at Slots vs. Machine Gun Max</t>
+  </si>
+  <si>
+    <t>Mission 1-3: Win at Video Poker vs. Machine Gun Max</t>
+  </si>
+  <si>
+    <t>Mission 1-4: Win at Draw Poker vs. Machine Gun Max</t>
+  </si>
+  <si>
+    <t>Mission 2-1: Win at Blackjack vs. Suitcase Sam</t>
+  </si>
+  <si>
+    <t>Mission 2-2: Win at Slots vs. Suitcase Sam</t>
+  </si>
+  <si>
+    <t>Mission 2-3: Win at Video Poker vs. Suitcase Sam</t>
+  </si>
+  <si>
+    <t>Mission 2-4: Win at Draw Poker vs. Suitcase Sam</t>
+  </si>
+  <si>
+    <t>Mission 3-1: Win at Blackjack vs. Hitman Harry</t>
+  </si>
+  <si>
+    <t>Mission 3-2: Win at Slots vs. Hitman Harry</t>
+  </si>
+  <si>
+    <t>Mission 3-3: Win at Video Poker vs. Hitman Harry</t>
+  </si>
+  <si>
+    <t>Mission 3-4: Win at Draw Poker vs. Hitman Harry</t>
+  </si>
+  <si>
+    <t>Mission 4-1: Win at Blackjack vs. Lucky Louis</t>
+  </si>
+  <si>
+    <t>Mission 4-2: Win at Slots vs. Lucky Louis</t>
+  </si>
+  <si>
+    <t>Mission 4-3: Win at Video Poker vs. Lucky Louis</t>
+  </si>
+  <si>
+    <t>Mission 4-4: Win at Draw Poker vs. Lucky Louis</t>
+  </si>
+  <si>
+    <t>Mission 5-1: Win at Blackjack vs. Al Cologne</t>
+  </si>
+  <si>
+    <t>Mission 5-2: Win at Slots vs. Al Cologne</t>
+  </si>
+  <si>
+    <t>Mission 5-3: Win at Video Poker vs. Al Cologne</t>
+  </si>
+  <si>
+    <t>Mission 5-4: Win at Draw Poker vs. Al Cologne</t>
+  </si>
+  <si>
+    <t>Earn at least $1 million total end-of-mission winnings (excludes password-loaded winnings)</t>
+  </si>
+  <si>
+    <t>Earn at least $1.5 million total end-of-mission winnings (excludes password-loaded winnings)</t>
+  </si>
+  <si>
+    <t>Craps - Win a Pass line bet by rolling a "natural" (7 or 11) on the come-out roll</t>
+  </si>
+  <si>
+    <t>Craps - Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a Come line bet by rolling 7 or 11</t>
+  </si>
+  <si>
+    <t>Craps - Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a Pass or Pass Odds line bet by rolling the point number</t>
+  </si>
+  <si>
+    <t>Craps - Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a Don't Pass or Don't Pass Odds line bet by "sevening out" (roll a 7)</t>
+  </si>
+  <si>
+    <t>[Practice] Video Poker - Win hand with one pair of \"Jacks or better\" (1x payout) or two pair (2x)</t>
+  </si>
+  <si>
+    <t>Craps - Win a Pass line bet by rolling a \"natural\" (7 or 11) on the come-out roll</t>
+  </si>
+  <si>
+    <t>Blackjack - Make your opponent bust with a \"very non-suspicious\" hand value of 35 points or more</t>
+  </si>
+  <si>
+    <t>Slots - Win all 3 lines on one spin</t>
+  </si>
+  <si>
+    <t>Draw Poker - Win hand with 3 of a Kind (4x VP payout)</t>
+  </si>
+  <si>
+    <t>Any Poker - Win hand with Straight (5x VP payout) or Flush (8x)</t>
+  </si>
+  <si>
+    <t>Any Poker - Win hand with Full House (20x VP payout) or 4 of a Kind (50x)</t>
+  </si>
+  <si>
+    <t>Any Poker - Win hand with Straight Flush (100x VP payout) or Royal Flush (250x)</t>
+  </si>
+  <si>
+    <t>Slots - Beat your opponent without buying any cheats/bonus items nor placing any bets over $10 (3x mult. is allowed)</t>
+  </si>
+  <si>
+    <t>Draw Poker - Win without losing a single hand</t>
+  </si>
+  <si>
+    <t>Craps - Win a Don't Pass line bet by rolling \"craps\" (2 or 3 to win, 12 to push) on the come-out roll</t>
+  </si>
+  <si>
+    <t>Craps - Win a Don't Pass line bet by rolling "craps" (2 or 3 to win, 12 to push) on the come-out roll</t>
+  </si>
+  <si>
+    <t>Craps - Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a Don't Come line bet by rolling 2 or 3 (12 to push)</t>
+  </si>
+  <si>
+    <t>Craps - Establish a \"point number\" (4-6 or 8-10) on the come-out roll, then win a Come line bet by rolling 7 or 11</t>
+  </si>
+  <si>
+    <t>Craps - Establish a \"point number\" (4-6 or 8-10) on the come-out roll, then win a Don't Come line bet by rolling 2 or 3 (12 to push)</t>
+  </si>
+  <si>
+    <t>Craps - Establish a \"point number\" (4-6 or 8-10) on the come-out roll, then win a Pass or Pass Odds line bet by rolling the point number</t>
+  </si>
+  <si>
+    <t>Craps - Establish a \"point number\" (4-6 or 8-10) on the come-out roll, then win a Don't Pass or Don't Pass Odds line bet by \"sevening out\" (roll a 7)</t>
+  </si>
+  <si>
+    <t>Blackjack Academy - Name of the Game</t>
+  </si>
+  <si>
+    <t>Blackjack Academy - Double Trouble</t>
+  </si>
+  <si>
+    <t>Blackjack Academy - Psychic Training</t>
+  </si>
+  <si>
+    <t>Slots Academy - Cherry Picking</t>
+  </si>
+  <si>
+    <t>Slots Academy - One-Armed Banditry</t>
+  </si>
+  <si>
+    <t>Video Poker Academy - Can You Hold, Please?</t>
+  </si>
+  <si>
+    <t>Video Poker Academy - Paired Up</t>
+  </si>
+  <si>
+    <t>Craps Academy - It's Only Natural</t>
+  </si>
+  <si>
+    <t>Craps Academy - Got the Craps</t>
+  </si>
+  <si>
+    <t>Craps Academy - Hold the Line</t>
+  </si>
+  <si>
+    <t>Craps Academy - Mama Told Me Not To</t>
+  </si>
+  <si>
+    <t>Craps Academy - OK, OK, I Get the Point</t>
+  </si>
+  <si>
+    <t>Craps Academy - What's in the Box?</t>
+  </si>
+  <si>
+    <t>Craps Academy - Crapshoot</t>
+  </si>
+  <si>
+    <t>Craps Academy - Rollin', Rollin', Rollin'</t>
+  </si>
+  <si>
+    <t>[Practice] Blackjack - Score a Blackjack (two-card 21: payout increased by half)</t>
+  </si>
+  <si>
+    <t>[Practice] Blackjack - Double down and win the hand (double bet: be dealt exactly one more card)</t>
+  </si>
+  <si>
+    <t>[Practice] Blackjack - Split and win both hands (two same-value cards: play them as separate hands, each with original bet)</t>
+  </si>
+  <si>
+    <t>[Practice] Blackjack - Buy or refuse insurance and have it pay off (dealer face-up ace: costs half your bet, original bet refunded if dealer has B.J.)</t>
+  </si>
+  <si>
+    <t>Blackjack Academy - Make Like a Banana</t>
+  </si>
+  <si>
+    <t>[Practice] Blackjack - Double down and win the hand (bet doubled and dealt exactly one more card)</t>
+  </si>
+  <si>
+    <t>instead of using "if" (runtime logic), use "and not HaveSoft11()" where function checks if point value != manual sum (with Aces = 1)</t>
+  </si>
+  <si>
+    <t>Complete Mission 2 while buying out every cheat from Shady (from 0 to max qty, twice per casino game)</t>
+  </si>
+  <si>
+    <t>too easy/limit achievement spam</t>
+  </si>
+  <si>
+    <t>Cherry Picking</t>
+  </si>
+  <si>
+    <t>Slots - Win any line with 2 Orange (12x payout) or 3 Orange (15x)</t>
+  </si>
+  <si>
+    <t>Slots - Win any line with 3 Bell (50x payout), 3 Bar (100x), or non-jackpot 777 (200x)</t>
+  </si>
+  <si>
+    <t>Beat the game without using a password</t>
+  </si>
+  <si>
+    <t>Draw Poker - Win hand with two pair (2x VP payout) or 3 of a Kind (4x)</t>
+  </si>
+  <si>
+    <t>too easy/limit achievement spam, merged higher of the two into other achievement</t>
+  </si>
+  <si>
+    <t>[Practice] Video Poker - Press the (H)old button under at least one card and have a higher-scoring hand on the second draw (one pair must be Jacks or better to score)</t>
+  </si>
+  <si>
+    <t>Blackjack - Score at least five Blackjacks in one game</t>
+  </si>
+  <si>
+    <t>replaced with BJ version, overlaps w/ win DP in 6 hands</t>
+  </si>
+  <si>
+    <t>Beginner's Luck?</t>
+  </si>
+  <si>
+    <t>"Machine Gun Max, Meet Bulletproof Bob"</t>
+  </si>
+  <si>
+    <t>Bulletproof Bob</t>
+  </si>
+  <si>
+    <t>Blackjack - Win all possible hands (allowed to lose on dealer B.J. or push on dealer 21)</t>
+  </si>
+  <si>
+    <t>Complete Mission 4 without losing any casino games</t>
+  </si>
+  <si>
+    <t>Complete Mission 5 with at least 12 Draw Poker Credits remaining</t>
+  </si>
+  <si>
+    <t>Color by Numbers</t>
+  </si>
+  <si>
+    <t>Matchmaker</t>
+  </si>
+  <si>
+    <t>Complete Mission X with at least 350K in cash winnings</t>
+  </si>
+  <si>
+    <t>preferred other "variety pack" challenges</t>
+  </si>
+  <si>
+    <t>Slots - Win any line with 2 Cherry (5x payout), 3 Cherry (10x), or 2 Orange (12x)</t>
+  </si>
+  <si>
+    <t>merged into Cherry Picking/Fruit Salad</t>
+  </si>
+  <si>
+    <t>Al Col-Owned</t>
+  </si>
+  <si>
+    <t>Lucky Louis Sleeps With the Fishes</t>
+  </si>
+  <si>
+    <t>Complete Mission 3 in six hands of Draw Poker or less</t>
+  </si>
+  <si>
+    <t>Blackjack - Have eight cards in your hand (bust allowed on last card)</t>
+  </si>
+  <si>
+    <t>Sound of Rain</t>
+  </si>
+  <si>
+    <t>Video Poker - Have at least 3 Joker cards in your hand in Competitive Mode</t>
+  </si>
+  <si>
+    <t>false trigger when opponent only bet (not raised) then player won hand (b/c "Player's Last Actual Bet Amount" not cleared from previous hand)
+still false triggers - when opponent bet first (on 2nd draw) and I raised him then won</t>
+  </si>
+  <si>
+    <t>needs investigation/possible reworking</t>
+  </si>
+  <si>
+    <t>Other Issue?</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>retest</t>
+  </si>
+  <si>
+    <t>test if this can be done without PauseLock</t>
+  </si>
+  <si>
+    <t>test if this can be done without PauseLock (start condition + Reset), add Trigger?</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1031,6 +1092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1413,11 +1475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1497,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1444,22 +1506,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1467,25 +1529,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1493,28 +1555,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1522,28 +1584,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1551,25 +1610,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1577,25 +1639,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1603,28 +1668,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="D7" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1632,25 +1694,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>298</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>296</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1658,25 +1723,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>295</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
-        <v>298</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1687,22 +1752,22 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1710,25 +1775,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1736,25 +1801,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
         <v>102</v>
       </c>
-      <c r="E12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" t="s">
-        <v>113</v>
-      </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1762,25 +1827,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1788,25 +1853,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1814,25 +1879,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1840,25 +1905,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" t="s">
         <v>102</v>
-      </c>
-      <c r="E16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" t="s">
-        <v>113</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1866,25 +1931,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1892,25 +1957,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1921,22 +1989,22 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1944,28 +2012,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
         <v>102</v>
       </c>
-      <c r="E20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
       <c r="H20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1973,25 +2038,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1999,25 +2064,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2025,25 +2090,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,25 +2116,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" t="s">
         <v>102</v>
       </c>
-      <c r="E24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" t="s">
-        <v>113</v>
-      </c>
       <c r="H24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2077,25 +2142,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
+        <v>130</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2103,25 +2171,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2132,25 +2203,25 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2158,28 +2229,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>289</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2187,28 +2255,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" t="s">
         <v>102</v>
       </c>
-      <c r="E29" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" t="s">
-        <v>193</v>
-      </c>
       <c r="H29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2216,25 +2281,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
         <v>102</v>
       </c>
-      <c r="E30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" t="s">
-        <v>115</v>
-      </c>
       <c r="H30">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2242,25 +2307,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2268,456 +2333,465 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>312</v>
       </c>
       <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" t="s">
         <v>103</v>
       </c>
-      <c r="E33" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" t="s">
-        <v>112</v>
+      <c r="G33" t="s">
+        <v>77</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" t="s">
         <v>103</v>
       </c>
-      <c r="E34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" t="s">
-        <v>43</v>
-      </c>
       <c r="H34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>311</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>248</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c r="D36" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
-      </c>
-      <c r="G36" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>233</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>302</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" t="s">
         <v>104</v>
       </c>
-      <c r="E40" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" t="s">
-        <v>51</v>
+      <c r="G40" t="s">
+        <v>90</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
+        <v>189</v>
+      </c>
+      <c r="G41" t="s">
+        <v>113</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="H42">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F43" t="s">
-        <v>114</v>
+        <v>189</v>
+      </c>
+      <c r="G43" t="s">
+        <v>76</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>284</v>
+        <v>204</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="D45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" t="s">
         <v>104</v>
-      </c>
-      <c r="E45" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" t="s">
-        <v>287</v>
       </c>
       <c r="H45">
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="D46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" t="s">
         <v>104</v>
       </c>
-      <c r="E46" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" t="s">
-        <v>287</v>
-      </c>
-      <c r="G46" t="s">
-        <v>84</v>
-      </c>
       <c r="H46">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" t="s">
         <v>104</v>
       </c>
-      <c r="E47" t="s">
-        <v>116</v>
-      </c>
-      <c r="F47" t="s">
-        <v>113</v>
+      <c r="G47" t="s">
+        <v>79</v>
       </c>
       <c r="H47">
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="J47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
-        <v>114</v>
+        <v>43</v>
+      </c>
+      <c r="G48" t="s">
+        <v>137</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2725,25 +2799,28 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F49" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="G49" t="s">
+        <v>155</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2751,28 +2828,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="D50" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="H50">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I50" t="s">
-        <v>211</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2780,28 +2854,28 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="D51" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="E51" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="G51" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I51" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2809,28 +2883,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>115</v>
-      </c>
-      <c r="G52" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="H52">
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2838,25 +2909,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>310</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H53">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2864,25 +2935,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H54">
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2890,25 +2961,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E55" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F55" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H55">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2916,25 +2987,25 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="D56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="E56" t="s">
-        <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="H56">
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2942,25 +3013,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="D57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" t="s">
         <v>105</v>
       </c>
-      <c r="E57" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
-      </c>
       <c r="H57">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2968,25 +3039,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H58">
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2994,25 +3065,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="C59" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="D59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" t="s">
         <v>105</v>
-      </c>
-      <c r="E59" t="s">
-        <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>115</v>
       </c>
       <c r="H59">
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3020,25 +3091,28 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="C60" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>104</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
       </c>
       <c r="H60">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3046,25 +3120,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="C61" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F61" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="H61">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3072,28 +3146,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F62" t="s">
-        <v>115</v>
-      </c>
-      <c r="G62" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="H62">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3101,25 +3172,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="C63" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="D63" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="E63" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="G63" t="s">
+        <v>122</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3127,25 +3201,28 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="C64" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="D64" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="G64" t="s">
+        <v>123</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3153,28 +3230,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="C65" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="D65" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="E65" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3182,28 +3256,28 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="C66" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="D66" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3211,25 +3285,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="C67" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="D67" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="E67" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3237,28 +3311,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
       <c r="C68" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="D68" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="E68" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
-      </c>
-      <c r="G68" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3266,25 +3337,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D69" t="s">
-        <v>298</v>
+        <v>94</v>
       </c>
       <c r="E69" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I69" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3292,25 +3363,25 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
-        <v>298</v>
+        <v>95</v>
       </c>
       <c r="E70" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3318,81 +3389,29 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I71" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" t="s">
-        <v>296</v>
-      </c>
-      <c r="D72" t="s">
-        <v>105</v>
-      </c>
-      <c r="E72" t="s">
-        <v>110</v>
-      </c>
-      <c r="F72" t="s">
-        <v>82</v>
-      </c>
-      <c r="H72">
-        <v>10</v>
-      </c>
-      <c r="I72" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>172</v>
-      </c>
-      <c r="C73" t="s">
-        <v>218</v>
-      </c>
-      <c r="D73" t="s">
-        <v>105</v>
-      </c>
-      <c r="E73" t="s">
-        <v>110</v>
-      </c>
-      <c r="F73" t="s">
-        <v>82</v>
-      </c>
-      <c r="H73">
-        <v>10</v>
-      </c>
-      <c r="I73" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I73" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}"/>
+  <autoFilter ref="A1:I71" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3401,11 +3420,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334CAE3C-4AD9-46C5-82BD-40A7611E1FF0}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3418,7 +3437,7 @@
     <col min="6" max="6" width="57.5703125" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48" customWidth="1"/>
+    <col min="9" max="9" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3429,727 +3448,872 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>299</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>299</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G16">
         <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
         <v>105</v>
       </c>
-      <c r="D17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" t="s">
-        <v>115</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>261</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" t="s">
-        <v>113</v>
-      </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
       <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
         <v>175</v>
       </c>
-      <c r="C20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>263</v>
-      </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s">
         <v>105</v>
       </c>
-      <c r="D22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" t="s">
-        <v>115</v>
-      </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="G23">
         <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s">
-        <v>265</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>156</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
         <v>105</v>
-      </c>
-      <c r="D25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" t="s">
-        <v>115</v>
       </c>
       <c r="G25">
         <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
-        <v>269</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
       <c r="B26" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G26">
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G27">
         <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s">
-        <v>292</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4163,8 +4327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1694228A-651B-4476-AFB3-5747286B6817}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4181,22 +4345,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -4205,21 +4369,21 @@
       </c>
       <c r="C3">
         <f>COUNTIF(Keep!H:H,"="&amp;B3)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
       <c r="F3">
         <f>COUNTIF(Keep!D:D,"="&amp;E3)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="K3">
         <f>COUNT(Keep!H:H)</f>
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -4228,21 +4392,21 @@
       </c>
       <c r="C4">
         <f>COUNTIF(Keep!H:H,"="&amp;B4)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F4">
         <f>COUNTIF(Keep!D:D,"="&amp;E4)</f>
         <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="K4">
         <f>SUM(Keep!H:H)</f>
-        <v>444</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -4251,21 +4415,21 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Keep!H:H,"="&amp;B5)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="F5">
         <f>SUM(H5:H7)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H5">
         <f>COUNTIF(Keep!D:D,"="&amp;G5)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -4274,21 +4438,21 @@
       </c>
       <c r="C6">
         <f>COUNTIF(Keep!H:H,"="&amp;B6)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H6">
         <f>COUNTIF(Keep!D:D,"="&amp;G6)</f>
         <v>11</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="K6">
-        <f>COUNTIFS(Testing!C:C,"=Yes",Testing!D:D,"&lt;&gt;Yes")</f>
-        <v>65</v>
+        <f>COUNTIFS(Testing!C:C,"=Yes",Testing!D:D,"&lt;&gt;Yes",Testing!E:E,"&lt;&gt;Yes")</f>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -4297,21 +4461,21 @@
       </c>
       <c r="C7">
         <f>COUNTIF(Keep!H:H,"="&amp;B7)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="H7">
         <f>COUNTIF(Keep!D:D,"="&amp;G7)</f>
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="K7">
-        <f>COUNTIF(Testing!C:C,"=No") + COUNTIF(Testing!C:C,"=No (retest)") + COUNTIF(Testing!D:D,"=Yes") - COUNTIFS(Testing!C:C,"=No",Testing!D:D,"=Yes") - COUNTIFS(Testing!C:C,"=No (retest)",Testing!D:D,"=Yes")</f>
-        <v>5</v>
+        <f>COUNTIF(Testing!C:C,"=No") + COUNTIF(Testing!C:C,"=No (retest)") + COUNTIF(Testing!D:D,"=Yes") + COUNTIF(Testing!E:E,"=Yes") - COUNTIFS(Testing!C:C,"=No",Testing!D:D,"=Yes") - COUNTIFS(Testing!C:C,"=No (retest)",Testing!D:D,"=Yes") - COUNTIFS(Testing!C:C,"=No",Testing!E:E,"=Yes") - COUNTIFS(Testing!C:C,"=No (retest)",Testing!E:E,"=Yes") - COUNTIFS(Testing!D:D,"=Yes",Testing!E:E,"=Yes")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -4320,21 +4484,21 @@
       </c>
       <c r="C8">
         <f>COUNTIF(Keep!H:H,"="&amp;B8)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F8">
         <f>COUNTIF(Keep!D:D,"="&amp;E8)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="K8">
         <f>K3-K6-K7</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -4346,11 +4510,11 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F9">
         <f>COUNTIF(Keep!D:D,"="&amp;E9)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -4373,42 +4537,42 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F13">
         <f>COUNTIF(Keep!F:F,"="&amp;E13)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F14">
         <f>COUNTIF(Keep!F:F,"="&amp;E14)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F15">
         <f>COUNTIF(Keep!F:F,"="&amp;E15)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F16">
         <f>COUNTIF(Keep!F:F,"="&amp;E16)</f>
@@ -4417,29 +4581,29 @@
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="F17">
         <f>COUNTIF(Keep!F:F,"="&amp;E17)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="F18">
         <f>COUNTIF(Keep!F:F,"="&amp;E18)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F19">
         <f>COUNTIF(Keep!F:F,"="&amp;E19)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4455,11 +4619,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4217636D-3F58-4C31-B7F4-A1FB83661293}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4467,13 +4631,13 @@
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="145.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="58.140625" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4481,990 +4645,1046 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>289</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>312</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>286</v>
+      </c>
+      <c r="B40" t="s">
+        <v>305</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>288</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>302</v>
+      </c>
+      <c r="B44" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>252</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" t="s">
+        <v>240</v>
+      </c>
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>293</v>
+      </c>
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" t="s">
+        <v>310</v>
+      </c>
+      <c r="C60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>284</v>
+      </c>
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>309</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>308</v>
+      </c>
+      <c r="B66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>307</v>
+      </c>
+      <c r="B67" t="s">
+        <v>300</v>
+      </c>
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>269</v>
+      </c>
+      <c r="B69" t="s">
+        <v>241</v>
+      </c>
+      <c r="C69" t="s">
+        <v>82</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>270</v>
+      </c>
+      <c r="B70" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72" t="s">
+        <v>257</v>
+      </c>
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>273</v>
+      </c>
+      <c r="B73" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="6" t="s">
+      <c r="B74" t="s">
+        <v>244</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>275</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>233</v>
-      </c>
-      <c r="B42" t="s">
-        <v>228</v>
-      </c>
-      <c r="C42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" t="s">
+        <v>215</v>
+      </c>
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B49" t="s">
-        <v>165</v>
-      </c>
-      <c r="C49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>160</v>
-      </c>
-      <c r="B50" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>159</v>
-      </c>
-      <c r="B51" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" t="s">
-        <v>203</v>
-      </c>
-      <c r="C53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>205</v>
-      </c>
-      <c r="B55" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>208</v>
-      </c>
-      <c r="B56" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>230</v>
-      </c>
-      <c r="B59" t="s">
-        <v>229</v>
-      </c>
-      <c r="C59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>235</v>
-      </c>
-      <c r="C62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" t="s">
-        <v>212</v>
-      </c>
-      <c r="C63" s="6" t="s">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
         <v>217</v>
       </c>
-      <c r="D63" t="s">
-        <v>90</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" t="s">
-        <v>293</v>
-      </c>
-      <c r="C64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" t="s">
-        <v>272</v>
-      </c>
-      <c r="C65" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G65" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" t="s">
-        <v>273</v>
-      </c>
-      <c r="C66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>290</v>
-      </c>
-      <c r="B68" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>177</v>
-      </c>
-      <c r="B71" t="s">
-        <v>236</v>
-      </c>
-      <c r="C71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>179</v>
-      </c>
-      <c r="B72" t="s">
-        <v>276</v>
-      </c>
-      <c r="C72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>171</v>
-      </c>
-      <c r="B73" t="s">
-        <v>238</v>
-      </c>
-      <c r="C73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>187</v>
-      </c>
-      <c r="B74" t="s">
-        <v>277</v>
-      </c>
-      <c r="C74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>182</v>
-      </c>
-      <c r="B75" t="s">
-        <v>240</v>
-      </c>
-      <c r="C75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>183</v>
-      </c>
-      <c r="B76" t="s">
-        <v>241</v>
-      </c>
-      <c r="C76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>243</v>
-      </c>
-      <c r="B77" t="s">
-        <v>181</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>244</v>
-      </c>
-      <c r="B78" t="s">
-        <v>180</v>
-      </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" t="s">
-        <v>296</v>
-      </c>
-      <c r="C80" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>172</v>
-      </c>
-      <c r="B81" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G81" xr:uid="{4217636D-3F58-4C31-B7F4-A1FB83661293}"/>
+  <autoFilter ref="A1:H79" xr:uid="{4217636D-3F58-4C31-B7F4-A1FB83661293}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/WIP/High Stakes Gambling (Game Boy)/Docs/achievement_plan.xlsx
+++ b/WIP/High Stakes Gambling (Game Boy)/Docs/achievement_plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78F511C-330A-4223-9503-BD389999308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74716F2-C409-4263-B0E1-073A915F4436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{31BE8862-275F-4D32-B8EC-607D115D47ED}"/>
+    <workbookView xWindow="-28875" yWindow="180" windowWidth="28485" windowHeight="15435" activeTab="2" xr2:uid="{31BE8862-275F-4D32-B8EC-607D115D47ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Keep" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
     <sheet name="Testing" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Keep!$A$1:$I$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Reject!$A$1:$I$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Testing!$A$1:$H$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Keep!$A$1:$I$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Reject!$A$1:$I$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Testing!$A$1:$H$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="317">
   <si>
     <t>Name</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Bustin' Don't Make Me Feel Good</t>
   </si>
   <si>
-    <t>I Won't Stand For This</t>
-  </si>
-  <si>
     <t>Forever 21</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No?</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -407,9 +401,6 @@
     <t>Dark-Sided!</t>
   </si>
   <si>
-    <t>It's Half-Full</t>
-  </si>
-  <si>
     <t>It's Half-Empty</t>
   </si>
   <si>
@@ -470,21 +461,12 @@
     <t>Triggered?</t>
   </si>
   <si>
-    <t>No (retest)</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
     <t>Issues</t>
   </si>
   <si>
-    <t>needs to handle "soft" 11</t>
-  </si>
-  <si>
-    <t>implement player bet/raise detection</t>
-  </si>
-  <si>
     <t>Working:</t>
   </si>
   <si>
@@ -497,9 +479,6 @@
     <t>Reviewed Logic?</t>
   </si>
   <si>
-    <t>triggers whenever swap card used</t>
-  </si>
-  <si>
     <t>High Stakes High Roller</t>
   </si>
   <si>
@@ -512,15 +491,9 @@
     <t>Can I Go Home Now?, Silver Arm, What a Load of Craps</t>
   </si>
   <si>
-    <t>implement</t>
-  </si>
-  <si>
     <t>needs reworking b/c strat is just bet everywhere</t>
   </si>
   <si>
-    <t>Any Craps (bet not removed on win) not counted, needs reworking b/c strat is just bet everywhere</t>
-  </si>
-  <si>
     <t>Coded?</t>
   </si>
   <si>
@@ -593,12 +566,6 @@
     <t>too simple/freebie</t>
   </si>
   <si>
-    <t>triggered when played 2nd joker (opponent had 1 joker as well) - unable to reproduce</t>
-  </si>
-  <si>
-    <t>not fully implemented</t>
-  </si>
-  <si>
     <t>RATools codes it with multiple ResetIf instead of OrNext, so it may need manual tweaking - or use a PauseLock instead? (according to Jamiras, I shouldn't be concerned about this being less performant?)</t>
   </si>
   <si>
@@ -632,9 +599,6 @@
     <t>[Practice] Slots - Win any line with 1 Cherry (2x payout) or 2 Cherry (5x)</t>
   </si>
   <si>
-    <t>[Practice] Slots - Bet on all three lines and win at least two of them on the same spin</t>
-  </si>
-  <si>
     <t>Blackjack - Use See Next Card when your hand value is 17 or less, revealing a card that would make you bust, then win the hand</t>
   </si>
   <si>
@@ -656,9 +620,6 @@
     <t>Video Poker - Win the jackpot with 5 of a Kind (requires 5x bet multiplier)</t>
   </si>
   <si>
-    <t>Slots - Purchase a bonus item (Spin 3 or 7), place it (with the D-pad), and win the line</t>
-  </si>
-  <si>
     <t>Video Poker - Use Swap Card to swap back a card taken from you</t>
   </si>
   <si>
@@ -677,18 +638,9 @@
     <t>Draw Poker - Place or raise a bet that causes your opponent to fold while your hand rank is less than one pair</t>
   </si>
   <si>
-    <t>*AI folding based mostly/only on their hand rather than bet amount?</t>
-  </si>
-  <si>
     <t>Complete Mission 1 without buying any cheats from Shady</t>
   </si>
   <si>
-    <t>Craps - Win at least 3 different single-roll bets (Craps #, Seven, Yoleven, Any Craps, C &amp; E, Horn, Field)</t>
-  </si>
-  <si>
-    <t>Craps - Win at least 3 different multi-roll bets (Place #, Buy #, Lay #, Hard #, Big #)</t>
-  </si>
-  <si>
     <t>Craps - Win a line, multi-roll, and single-roll bet on the same roll (without any other bets on the table)</t>
   </si>
   <si>
@@ -770,12 +722,6 @@
     <t>Craps - Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a Come line bet by rolling 7 or 11</t>
   </si>
   <si>
-    <t>Craps - Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a Pass or Pass Odds line bet by rolling the point number</t>
-  </si>
-  <si>
-    <t>Craps - Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a Don't Pass or Don't Pass Odds line bet by "sevening out" (roll a 7)</t>
-  </si>
-  <si>
     <t>[Practice] Video Poker - Win hand with one pair of \"Jacks or better\" (1x payout) or two pair (2x)</t>
   </si>
   <si>
@@ -821,57 +767,12 @@
     <t>Craps - Establish a \"point number\" (4-6 or 8-10) on the come-out roll, then win a Don't Come line bet by rolling 2 or 3 (12 to push)</t>
   </si>
   <si>
-    <t>Craps - Establish a \"point number\" (4-6 or 8-10) on the come-out roll, then win a Pass or Pass Odds line bet by rolling the point number</t>
-  </si>
-  <si>
-    <t>Craps - Establish a \"point number\" (4-6 or 8-10) on the come-out roll, then win a Don't Pass or Don't Pass Odds line bet by \"sevening out\" (roll a 7)</t>
-  </si>
-  <si>
-    <t>Blackjack Academy - Name of the Game</t>
-  </si>
-  <si>
-    <t>Blackjack Academy - Double Trouble</t>
-  </si>
-  <si>
-    <t>Blackjack Academy - Psychic Training</t>
-  </si>
-  <si>
     <t>Slots Academy - Cherry Picking</t>
   </si>
   <si>
-    <t>Slots Academy - One-Armed Banditry</t>
-  </si>
-  <si>
-    <t>Video Poker Academy - Can You Hold, Please?</t>
-  </si>
-  <si>
     <t>Video Poker Academy - Paired Up</t>
   </si>
   <si>
-    <t>Craps Academy - It's Only Natural</t>
-  </si>
-  <si>
-    <t>Craps Academy - Got the Craps</t>
-  </si>
-  <si>
-    <t>Craps Academy - Hold the Line</t>
-  </si>
-  <si>
-    <t>Craps Academy - Mama Told Me Not To</t>
-  </si>
-  <si>
-    <t>Craps Academy - OK, OK, I Get the Point</t>
-  </si>
-  <si>
-    <t>Craps Academy - What's in the Box?</t>
-  </si>
-  <si>
-    <t>Craps Academy - Crapshoot</t>
-  </si>
-  <si>
-    <t>Craps Academy - Rollin', Rollin', Rollin'</t>
-  </si>
-  <si>
     <t>[Practice] Blackjack - Score a Blackjack (two-card 21: payout increased by half)</t>
   </si>
   <si>
@@ -884,15 +785,9 @@
     <t>[Practice] Blackjack - Buy or refuse insurance and have it pay off (dealer face-up ace: costs half your bet, original bet refunded if dealer has B.J.)</t>
   </si>
   <si>
-    <t>Blackjack Academy - Make Like a Banana</t>
-  </si>
-  <si>
     <t>[Practice] Blackjack - Double down and win the hand (bet doubled and dealt exactly one more card)</t>
   </si>
   <si>
-    <t>instead of using "if" (runtime logic), use "and not HaveSoft11()" where function checks if point value != manual sum (with Aces = 1)</t>
-  </si>
-  <si>
     <t>Complete Mission 2 while buying out every cheat from Shady (from 0 to max qty, twice per casino game)</t>
   </si>
   <si>
@@ -917,9 +812,6 @@
     <t>too easy/limit achievement spam, merged higher of the two into other achievement</t>
   </si>
   <si>
-    <t>[Practice] Video Poker - Press the (H)old button under at least one card and have a higher-scoring hand on the second draw (one pair must be Jacks or better to score)</t>
-  </si>
-  <si>
     <t>Blackjack - Score at least five Blackjacks in one game</t>
   </si>
   <si>
@@ -932,9 +824,6 @@
     <t>"Machine Gun Max, Meet Bulletproof Bob"</t>
   </si>
   <si>
-    <t>Bulletproof Bob</t>
-  </si>
-  <si>
     <t>Blackjack - Win all possible hands (allowed to lose on dealer B.J. or push on dealer 21)</t>
   </si>
   <si>
@@ -950,12 +839,6 @@
     <t>Matchmaker</t>
   </si>
   <si>
-    <t>Complete Mission X with at least 350K in cash winnings</t>
-  </si>
-  <si>
-    <t>preferred other "variety pack" challenges</t>
-  </si>
-  <si>
     <t>Slots - Win any line with 2 Cherry (5x payout), 3 Cherry (10x), or 2 Orange (12x)</t>
   </si>
   <si>
@@ -977,36 +860,144 @@
     <t>Sound of Rain</t>
   </si>
   <si>
-    <t>Video Poker - Have at least 3 Joker cards in your hand in Competitive Mode</t>
-  </si>
-  <si>
-    <t>false trigger when opponent only bet (not raised) then player won hand (b/c "Player's Last Actual Bet Amount" not cleared from previous hand)
-still false triggers - when opponent bet first (on 2nd draw) and I raised him then won</t>
-  </si>
-  <si>
-    <t>needs investigation/possible reworking</t>
-  </si>
-  <si>
     <t>Other Issue?</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>retest</t>
-  </si>
-  <si>
     <t>test if this can be done without PauseLock</t>
   </si>
   <si>
     <t>test if this can be done without PauseLock (start condition + Reset), add Trigger?</t>
+  </si>
+  <si>
+    <t>Slots - Purchase a bonus item (on Spin 3 or 7), place it (with the D-pad), and win the line</t>
+  </si>
+  <si>
+    <t>needs reworking b/c strat is just bet everywhere, fixed: Any Craps (bet not removed on win) not counted</t>
+  </si>
+  <si>
+    <t>[Practice] Video Poker - Hold at least one card and get a higher-scoring hand on the 2nd draw (one pair doesn't score unless Jacks or better)</t>
+  </si>
+  <si>
+    <t>[Practice] Slots - Bet on all three lines and win at least two of them</t>
+  </si>
+  <si>
+    <t>Leaderboards:</t>
+  </si>
+  <si>
+    <t>RP:</t>
+  </si>
+  <si>
+    <t>Badges:</t>
+  </si>
+  <si>
+    <t>Craps - Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a Don't Pass line bet by "sevening out" (roll a 7)</t>
+  </si>
+  <si>
+    <t>Craps - Establish a \"point number\" (4-6 or 8-10) on the come-out roll, then win a Don't Pass line bet by \"sevening out\" (roll a 7)</t>
+  </si>
+  <si>
+    <t>Craps - Establish a \"point number\" (4-6 or 8-10) on the come-out roll, then win a Pass line bet by rerolling the point number</t>
+  </si>
+  <si>
+    <t>Craps - Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a Pass line bet by rerolling the point number</t>
+  </si>
+  <si>
+    <t>It's Half-Full, Hold the Line</t>
+  </si>
+  <si>
+    <t>Craps - Win at least 5 different single-roll bets (Craps #, Seven, Yoleven, Any Craps, C &amp; E, Horn, Field)</t>
+  </si>
+  <si>
+    <t>Craps - Win at least 5 different multi-roll bets (Place #, Buy #, Lay #, Hard #, Big #)</t>
+  </si>
+  <si>
+    <t>Earn at least $350,000 end-of-mission winnings in one mission</t>
+  </si>
+  <si>
+    <t>I Will Not Stand For This</t>
+  </si>
+  <si>
+    <t>Call Me Bulletproof Bob</t>
+  </si>
+  <si>
+    <t>Blackjack Academy: Name of the Game</t>
+  </si>
+  <si>
+    <t>Blackjack Academy: Double Trouble</t>
+  </si>
+  <si>
+    <t>Blackjack Academy: Make Like a Banana</t>
+  </si>
+  <si>
+    <t>Blackjack Academy: Psychic Training</t>
+  </si>
+  <si>
+    <t>Slots Academy: One-Armed Banditry</t>
+  </si>
+  <si>
+    <t>Video Poker Academy: Can You Hold, Please?</t>
+  </si>
+  <si>
+    <t>Craps Academy: It's Only Natural</t>
+  </si>
+  <si>
+    <t>Craps Academy: Got the Craps</t>
+  </si>
+  <si>
+    <t>Craps Academy: Come to Papa</t>
+  </si>
+  <si>
+    <t>Craps Academy: Mama Told Me Not To</t>
+  </si>
+  <si>
+    <t>Craps Academy: OK, I Get the Point</t>
+  </si>
+  <si>
+    <t>Craps Academy: What's in the Box?</t>
+  </si>
+  <si>
+    <t>Craps Academy: Crapshoot</t>
+  </si>
+  <si>
+    <t>Craps Academy: Rollin', Rollin', Rollin'</t>
+  </si>
+  <si>
+    <t>Video Poker - Have at least 3 Joker cards at the end of the hand (Competitive Mode only)</t>
+  </si>
+  <si>
+    <t>false trigger when opponent is doing Swap Card evaluation if there are 3+ jokers total (fixed by checking at end of hand)
+triggered when played 2nd joker (opponent had 1 joker as well) - unable to reproduce</t>
+  </si>
+  <si>
+    <t>merged into Ready to Take a Stand</t>
+  </si>
+  <si>
+    <t>merged into Ready to Take a Stand (avoids "soft 11" problem)</t>
+  </si>
+  <si>
+    <t>Ready to Take a Stand</t>
+  </si>
+  <si>
+    <t>Blackjack - Stand with a hand value between 12-17, safe with the knowledge that the dealer will bust</t>
+  </si>
+  <si>
+    <t>unable to get working (false trigger and unable to "remember" swapped card), too simplistic</t>
+  </si>
+  <si>
+    <t>lack of player control - AI folding seems based mostly (if not only) on their hand rather than bet amount</t>
+  </si>
+  <si>
+    <t>Cut:</t>
+  </si>
+  <si>
+    <t>unable to get working (false trigger b/c "Player's Last Actual Bet Amount" isn't cleared from previous hand/draw)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,15 +1028,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1058,11 +1042,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1073,11 +1052,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1088,14 +1066,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1475,11 +1451,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,7 +1473,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1506,13 +1482,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -1521,7 +1497,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1529,25 +1505,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
         <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>102</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1555,28 +1531,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
         <v>100</v>
       </c>
-      <c r="F3" t="s">
-        <v>102</v>
-      </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1584,25 +1560,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
         <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1610,28 +1586,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
         <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>102</v>
       </c>
       <c r="G5" t="s">
         <v>30</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1639,19 +1615,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -1660,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1668,25 +1644,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1694,28 +1670,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1723,25 +1699,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1752,22 +1728,22 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
         <v>101</v>
-      </c>
-      <c r="F10" t="s">
-        <v>103</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1778,22 +1754,22 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1804,22 +1780,22 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1830,22 +1806,22 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1856,22 +1832,22 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
         <v>101</v>
-      </c>
-      <c r="F14" t="s">
-        <v>103</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1882,22 +1858,22 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H15">
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1908,22 +1884,22 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1934,22 +1910,22 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1960,16 +1936,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
         <v>101</v>
-      </c>
-      <c r="F18" t="s">
-        <v>103</v>
       </c>
       <c r="G18" t="s">
         <v>28</v>
@@ -1978,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1989,22 +1965,22 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H19">
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2015,22 +1991,22 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H20">
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2041,22 +2017,22 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2067,22 +2043,22 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
         <v>101</v>
-      </c>
-      <c r="F22" t="s">
-        <v>103</v>
       </c>
       <c r="H22">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2093,22 +2069,22 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2119,22 +2095,22 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H24">
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2145,25 +2121,25 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H25">
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2171,19 +2147,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" t="s">
         <v>101</v>
-      </c>
-      <c r="F26" t="s">
-        <v>103</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -2192,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2203,25 +2179,25 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2232,22 +2208,22 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H28">
         <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2255,25 +2231,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>311</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>312</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H29">
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2281,25 +2257,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2307,25 +2283,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="H31">
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2333,465 +2309,465 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" t="s">
         <v>101</v>
       </c>
-      <c r="F32" t="s">
-        <v>43</v>
+      <c r="G32" t="s">
+        <v>76</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="C33" t="s">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>251</v>
       </c>
       <c r="C34" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>286</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="G37" t="s">
+        <v>69</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="C38" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>102</v>
+      </c>
+      <c r="G38" t="s">
+        <v>88</v>
       </c>
       <c r="H38">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="H39">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G40" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G41" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>189</v>
-      </c>
-      <c r="G43" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="H43">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F45" t="s">
-        <v>104</v>
+        <v>42</v>
+      </c>
+      <c r="G45" t="s">
+        <v>134</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H46">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="H47">
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>83</v>
-      </c>
-      <c r="J47" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="G48" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2799,28 +2775,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
-        <v>105</v>
-      </c>
-      <c r="G49" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="H49">
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2828,25 +2801,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H50">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2854,28 +2827,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2883,25 +2853,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H52">
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2909,25 +2879,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H53">
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2935,16 +2905,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
         <v>102</v>
@@ -2953,7 +2923,7 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2961,25 +2931,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2987,25 +2957,28 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3013,25 +2986,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="C57" t="s">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F57" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3039,25 +3012,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="C58" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F58" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3065,25 +3038,28 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C59" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="E59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F59" t="s">
-        <v>105</v>
+        <v>73</v>
+      </c>
+      <c r="G59" t="s">
+        <v>287</v>
       </c>
       <c r="H59">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3091,28 +3067,28 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C60" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F60" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="H60">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3120,25 +3096,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="C61" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="D61" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3146,25 +3122,28 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="D62" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="G62" t="s">
+        <v>119</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3172,28 +3151,25 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="C63" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D63" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3201,28 +3177,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="C64" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="D64" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F64" t="s">
-        <v>74</v>
-      </c>
-      <c r="G64" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3230,25 +3203,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>273</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D65" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="E65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I65" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3256,28 +3229,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="E66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G66" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3285,133 +3255,32 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="E67" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>276</v>
-      </c>
-      <c r="C68" t="s">
-        <v>215</v>
-      </c>
-      <c r="D68" t="s">
-        <v>194</v>
-      </c>
-      <c r="E68" t="s">
-        <v>100</v>
-      </c>
-      <c r="F68" t="s">
-        <v>74</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="I68" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>120</v>
-      </c>
-      <c r="C69" t="s">
-        <v>216</v>
-      </c>
-      <c r="D69" t="s">
-        <v>94</v>
-      </c>
-      <c r="E69" t="s">
-        <v>100</v>
-      </c>
-      <c r="F69" t="s">
-        <v>74</v>
-      </c>
-      <c r="H69">
-        <v>5</v>
-      </c>
-      <c r="I69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" t="s">
-        <v>217</v>
-      </c>
-      <c r="D70" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" t="s">
-        <v>74</v>
-      </c>
-      <c r="H70">
-        <v>10</v>
-      </c>
-      <c r="I70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" t="s">
-        <v>218</v>
-      </c>
-      <c r="D71" t="s">
-        <v>95</v>
-      </c>
-      <c r="E71" t="s">
-        <v>100</v>
-      </c>
-      <c r="F71" t="s">
-        <v>74</v>
-      </c>
-      <c r="H71">
-        <v>10</v>
-      </c>
-      <c r="I71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I71" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}"/>
+  <autoFilter ref="A1:I67" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J67">
+    <sortCondition ref="A2:A67"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3420,11 +3289,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334CAE3C-4AD9-46C5-82BD-40A7611E1FF0}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3448,13 +3317,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -3463,550 +3332,550 @@
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
         <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>102</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15">
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16">
         <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" t="s">
-        <v>103</v>
-      </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
         <v>26</v>
@@ -4015,309 +3884,439 @@
         <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G23">
         <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G25">
         <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G26">
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G27">
         <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="B30" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G31">
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
+        <v>85</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="C33" t="s">
         <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="G33">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36">
         <v>2</v>
       </c>
-      <c r="H33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" t="s">
-        <v>306</v>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I24" xr:uid="{334CAE3C-4AD9-46C5-82BD-40A7611E1FF0}"/>
+  <autoFilter ref="A1:I38" xr:uid="{334CAE3C-4AD9-46C5-82BD-40A7611E1FF0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4328,7 +4327,7 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4345,22 +4344,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -4369,21 +4368,21 @@
       </c>
       <c r="C3">
         <f>COUNTIF(Keep!H:H,"="&amp;B3)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F3">
         <f>COUNTIF(Keep!D:D,"="&amp;E3)</f>
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K3">
         <f>COUNT(Keep!H:H)</f>
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -4392,21 +4391,21 @@
       </c>
       <c r="C4">
         <f>COUNTIF(Keep!H:H,"="&amp;B4)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4">
         <f>COUNTIF(Keep!D:D,"="&amp;E4)</f>
         <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K4">
         <f>SUM(Keep!H:H)</f>
-        <v>417</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -4415,21 +4414,21 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Keep!H:H,"="&amp;B5)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F5">
         <f>SUM(H5:H7)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H5">
         <f>COUNTIF(Keep!D:D,"="&amp;G5)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -4438,21 +4437,21 @@
       </c>
       <c r="C6">
         <f>COUNTIF(Keep!H:H,"="&amp;B6)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H6">
         <f>COUNTIF(Keep!D:D,"="&amp;G6)</f>
         <v>11</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K6">
         <f>COUNTIFS(Testing!C:C,"=Yes",Testing!D:D,"&lt;&gt;Yes",Testing!E:E,"&lt;&gt;Yes")</f>
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -4461,21 +4460,21 @@
       </c>
       <c r="C7">
         <f>COUNTIF(Keep!H:H,"="&amp;B7)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H7">
         <f>COUNTIF(Keep!D:D,"="&amp;G7)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K7">
         <f>COUNTIF(Testing!C:C,"=No") + COUNTIF(Testing!C:C,"=No (retest)") + COUNTIF(Testing!D:D,"=Yes") + COUNTIF(Testing!E:E,"=Yes") - COUNTIFS(Testing!C:C,"=No",Testing!D:D,"=Yes") - COUNTIFS(Testing!C:C,"=No (retest)",Testing!D:D,"=Yes") - COUNTIFS(Testing!C:C,"=No",Testing!E:E,"=Yes") - COUNTIFS(Testing!C:C,"=No (retest)",Testing!E:E,"=Yes") - COUNTIFS(Testing!D:D,"=Yes",Testing!E:E,"=Yes")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -4487,14 +4486,14 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F8">
         <f>COUNTIF(Keep!D:D,"="&amp;E8)</f>
         <v>2</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K8">
         <f>K3-K6-K7</f>
@@ -4507,13 +4506,20 @@
       </c>
       <c r="C9">
         <f>COUNTIF(Keep!H:H,"="&amp;B9)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F9">
         <f>COUNTIF(Keep!D:D,"="&amp;E9)</f>
+        <v>11</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="K9">
+        <f>COUNTIF(Reject!H:H,"=Yes")</f>
         <v>12</v>
       </c>
     </row>
@@ -4534,27 +4540,45 @@
         <f>COUNTIF(Keep!H:H,"="&amp;B11)</f>
         <v>0</v>
       </c>
+      <c r="J11" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K11">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <f>COUNTIF(Keep!F:F,"="&amp;E13)</f>
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14">
         <f>COUNTIF(Keep!F:F,"="&amp;E14)</f>
@@ -4563,25 +4587,25 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F15">
         <f>COUNTIF(Keep!F:F,"="&amp;E15)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F16">
         <f>COUNTIF(Keep!F:F,"="&amp;E16)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F17">
         <f>COUNTIF(Keep!F:F,"="&amp;E17)</f>
@@ -4590,7 +4614,7 @@
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18">
         <f>COUNTIF(Keep!F:F,"="&amp;E18)</f>
@@ -4599,7 +4623,7 @@
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19">
         <f>COUNTIF(Keep!F:F,"="&amp;E19)</f>
@@ -4619,11 +4643,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4217636D-3F58-4C31-B7F4-A1FB83661293}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4645,144 +4669,144 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4790,13 +4814,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4804,13 +4828,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4818,13 +4842,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4832,13 +4856,13 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4846,845 +4870,726 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>312</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H32" t="s">
-        <v>283</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>312</v>
-      </c>
-      <c r="C36" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" t="s">
-        <v>184</v>
+        <v>81</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>286</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="B42" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="F46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" t="s">
-        <v>252</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>133</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="F50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H52" t="s">
-        <v>314</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>319</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>271</v>
+      </c>
+      <c r="C57" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="F58" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="F59" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>313</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
-      </c>
-      <c r="H63" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" t="s">
-        <v>284</v>
-      </c>
-      <c r="C64" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>299</v>
       </c>
       <c r="B65" t="s">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B66" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B67" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
-      </c>
-      <c r="F67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>302</v>
+      </c>
+      <c r="B68" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="B69" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>317</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="B70" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>317</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>317</v>
+        <v>81</v>
+      </c>
+      <c r="H71" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="B72" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>317</v>
+        <v>81</v>
+      </c>
+      <c r="H72" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>273</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>317</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>317</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>214</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>276</v>
-      </c>
-      <c r="B76" t="s">
-        <v>215</v>
-      </c>
-      <c r="C76" t="s">
-        <v>82</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>120</v>
-      </c>
-      <c r="B77" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" t="s">
-        <v>217</v>
-      </c>
-      <c r="C78" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>116</v>
-      </c>
-      <c r="B79" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" t="s">
-        <v>82</v>
+        <v>202</v>
+      </c>
+      <c r="C75" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H79" xr:uid="{4217636D-3F58-4C31-B7F4-A1FB83661293}"/>
+  <autoFilter ref="A1:H75" xr:uid="{4217636D-3F58-4C31-B7F4-A1FB83661293}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/WIP/High Stakes Gambling (Game Boy)/Docs/achievement_plan.xlsx
+++ b/WIP/High Stakes Gambling (Game Boy)/Docs/achievement_plan.xlsx
@@ -3,20 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74716F2-C409-4263-B0E1-073A915F4436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE03C0EB-4066-475F-AA75-0BE73C55E408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28875" yWindow="180" windowWidth="28485" windowHeight="15435" activeTab="2" xr2:uid="{31BE8862-275F-4D32-B8EC-607D115D47ED}"/>
+    <workbookView xWindow="-28875" yWindow="180" windowWidth="28485" windowHeight="15435" xr2:uid="{31BE8862-275F-4D32-B8EC-607D115D47ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Keep" sheetId="1" r:id="rId1"/>
     <sheet name="Reject" sheetId="3" r:id="rId2"/>
     <sheet name="Stats" sheetId="4" r:id="rId3"/>
-    <sheet name="Testing" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Keep!$A$1:$I$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Keep!$A$1:$O$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Reject!$A$1:$I$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Testing!$A$1:$H$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="306">
   <si>
     <t>Name</t>
   </si>
@@ -80,9 +78,6 @@
     <t>Whacked the Hitman</t>
   </si>
   <si>
-    <t>Loius the Not-So-Great</t>
-  </si>
-  <si>
     <t>More Like Unlucky Louis, Amirite?</t>
   </si>
   <si>
@@ -608,9 +603,6 @@
     <t>Blackjack - Use Swap Card to raise your opponent's hand value above 21 points</t>
   </si>
   <si>
-    <t>Blackjack - Make your opponent bust with a "very non-suspicious" hand value of 35 points or more</t>
-  </si>
-  <si>
     <t>Slots - Win any line with 3 Orange (15x payout), 3 Plum (20x), or 3 Melon (25x)</t>
   </si>
   <si>
@@ -629,9 +621,6 @@
     <t>Draw Poker - Defeat any gangster by making him run out of Draw Poker Credits</t>
   </si>
   <si>
-    <t>Slots - Beat your opponent without buying any cheats/bonus items nor placing any bets over $10 (3x multiplier allowed)</t>
-  </si>
-  <si>
     <t>Draw Poker - When your opponent raises your bet, keep playing the hand and win it</t>
   </si>
   <si>
@@ -716,12 +705,6 @@
     <t>Earn at least $1.5 million total end-of-mission winnings (excludes password-loaded winnings)</t>
   </si>
   <si>
-    <t>Craps - Win a Pass line bet by rolling a "natural" (7 or 11) on the come-out roll</t>
-  </si>
-  <si>
-    <t>Craps - Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a Come line bet by rolling 7 or 11</t>
-  </si>
-  <si>
     <t>[Practice] Video Poker - Win hand with one pair of \"Jacks or better\" (1x payout) or two pair (2x)</t>
   </si>
   <si>
@@ -734,9 +717,6 @@
     <t>Slots - Win all 3 lines on one spin</t>
   </si>
   <si>
-    <t>Draw Poker - Win hand with 3 of a Kind (4x VP payout)</t>
-  </si>
-  <si>
     <t>Any Poker - Win hand with Straight (5x VP payout) or Flush (8x)</t>
   </si>
   <si>
@@ -755,12 +735,6 @@
     <t>Craps - Win a Don't Pass line bet by rolling \"craps\" (2 or 3 to win, 12 to push) on the come-out roll</t>
   </si>
   <si>
-    <t>Craps - Win a Don't Pass line bet by rolling "craps" (2 or 3 to win, 12 to push) on the come-out roll</t>
-  </si>
-  <si>
-    <t>Craps - Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a Don't Come line bet by rolling 2 or 3 (12 to push)</t>
-  </si>
-  <si>
     <t>Craps - Establish a \"point number\" (4-6 or 8-10) on the come-out roll, then win a Come line bet by rolling 7 or 11</t>
   </si>
   <si>
@@ -776,9 +750,6 @@
     <t>[Practice] Blackjack - Score a Blackjack (two-card 21: payout increased by half)</t>
   </si>
   <si>
-    <t>[Practice] Blackjack - Double down and win the hand (double bet: be dealt exactly one more card)</t>
-  </si>
-  <si>
     <t>[Practice] Blackjack - Split and win both hands (two same-value cards: play them as separate hands, each with original bet)</t>
   </si>
   <si>
@@ -890,16 +861,10 @@
     <t>Badges:</t>
   </si>
   <si>
-    <t>Craps - Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a Don't Pass line bet by "sevening out" (roll a 7)</t>
-  </si>
-  <si>
     <t>Craps - Establish a \"point number\" (4-6 or 8-10) on the come-out roll, then win a Don't Pass line bet by \"sevening out\" (roll a 7)</t>
   </si>
   <si>
     <t>Craps - Establish a \"point number\" (4-6 or 8-10) on the come-out roll, then win a Pass line bet by rerolling the point number</t>
-  </si>
-  <si>
-    <t>Craps - Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a Pass line bet by rerolling the point number</t>
   </si>
   <si>
     <t>It's Half-Full, Hold the Line</t>
@@ -1029,18 +994,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1055,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1064,8 +1023,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1451,16 +1408,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
     <col min="3" max="3" width="131.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
@@ -1468,12 +1428,17 @@
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="68" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" customWidth="1"/>
+    <col min="15" max="15" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1482,245 +1447,311 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
         <v>99</v>
       </c>
-      <c r="F8" t="s">
-        <v>100</v>
-      </c>
       <c r="G8" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1728,25 +1759,31 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1754,25 +1791,31 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1780,25 +1823,31 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
         <v>99</v>
-      </c>
-      <c r="F12" t="s">
-        <v>100</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1806,25 +1855,31 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13">
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1832,25 +1887,31 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1858,25 +1919,31 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H15">
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1884,25 +1951,31 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
         <v>99</v>
-      </c>
-      <c r="F16" t="s">
-        <v>100</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1910,54 +1983,66 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J18" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1965,1319 +2050,1550 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19">
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
         <v>99</v>
-      </c>
-      <c r="F20" t="s">
-        <v>100</v>
       </c>
       <c r="H20">
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J20" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J21" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H22">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J23" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
         <v>99</v>
-      </c>
-      <c r="F24" t="s">
-        <v>100</v>
       </c>
       <c r="H24">
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H25">
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H26">
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J26" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J27" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H28">
         <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J28" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C29" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="s">
         <v>99</v>
-      </c>
-      <c r="F29" t="s">
-        <v>100</v>
       </c>
       <c r="H29">
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" t="s">
         <v>99</v>
-      </c>
-      <c r="F30" t="s">
-        <v>100</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H31">
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C34" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J34" t="s">
+        <v>80</v>
+      </c>
+      <c r="M34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35">
         <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J35" t="s">
+        <v>80</v>
+      </c>
+      <c r="M35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H36">
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J36" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37">
         <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J38" t="s">
+        <v>80</v>
+      </c>
+      <c r="M38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H39">
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J39" t="s">
+        <v>80</v>
+      </c>
+      <c r="M39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H40">
         <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J40" t="s">
+        <v>80</v>
+      </c>
+      <c r="M40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H41">
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J41" t="s">
+        <v>80</v>
+      </c>
+      <c r="M41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H42">
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H43">
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H44">
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M45" t="s">
+        <v>80</v>
+      </c>
+      <c r="N45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H46">
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H47">
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" t="s">
         <v>99</v>
       </c>
-      <c r="F48" t="s">
-        <v>100</v>
-      </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" t="s">
         <v>99</v>
-      </c>
-      <c r="F49" t="s">
-        <v>100</v>
       </c>
       <c r="H49">
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="H50">
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="H51">
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+      <c r="M51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H52">
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+      <c r="M52" t="s">
+        <v>80</v>
+      </c>
+      <c r="O52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H53">
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H54">
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+      <c r="M54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C55" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H55">
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C56" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H56">
         <v>25</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s">
+        <v>80</v>
+      </c>
+      <c r="M56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C57" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C58" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C59" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G59" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C60" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C61" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C62" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C63" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J63" t="s">
+        <v>80</v>
+      </c>
+      <c r="O63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C64" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H64">
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J64" t="s">
+        <v>80</v>
+      </c>
+      <c r="O64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H65">
         <v>5</v>
       </c>
       <c r="I65" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="J65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H66">
         <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H67">
         <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="J67" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I67" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}"/>
+  <autoFilter ref="A1:O67" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J67">
     <sortCondition ref="A2:A67"/>
   </sortState>
@@ -3292,8 +3608,8 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3317,1002 +3633,1002 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
         <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>100</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
         <v>99</v>
-      </c>
-      <c r="E9" t="s">
-        <v>100</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
         <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15">
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s">
         <v>163</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G23">
         <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
         <v>153</v>
       </c>
-      <c r="B25" t="s">
-        <v>154</v>
-      </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G25">
         <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G26">
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
         <v>99</v>
-      </c>
-      <c r="E27" t="s">
-        <v>100</v>
       </c>
       <c r="G27">
         <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G31">
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G33">
         <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
         <v>99</v>
-      </c>
-      <c r="E34" t="s">
-        <v>100</v>
       </c>
       <c r="G34">
         <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
         <v>99</v>
-      </c>
-      <c r="E35" t="s">
-        <v>100</v>
       </c>
       <c r="G35">
         <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37">
         <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G38">
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4326,8 +4642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1694228A-651B-4476-AFB3-5747286B6817}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4344,22 +4660,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -4371,14 +4687,14 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F3">
         <f>COUNTIF(Keep!D:D,"="&amp;E3)</f>
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K3">
         <f>COUNT(Keep!H:H)</f>
@@ -4394,14 +4710,14 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4">
         <f>COUNTIF(Keep!D:D,"="&amp;E4)</f>
         <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K4">
         <f>SUM(Keep!H:H)</f>
@@ -4417,14 +4733,14 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5">
         <f>SUM(H5:H7)</f>
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <f>COUNTIF(Keep!D:D,"="&amp;G5)</f>
@@ -4440,17 +4756,17 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6">
         <f>COUNTIF(Keep!D:D,"="&amp;G6)</f>
         <v>11</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K6">
-        <f>COUNTIFS(Testing!C:C,"=Yes",Testing!D:D,"&lt;&gt;Yes",Testing!E:E,"&lt;&gt;Yes")</f>
+        <f>COUNTIFS(Keep!J:J,"=Yes",Keep!K:K,"&lt;&gt;Yes",Keep!L:L,"&lt;&gt;Yes")</f>
         <v>66</v>
       </c>
     </row>
@@ -4463,17 +4779,17 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7">
         <f>COUNTIF(Keep!D:D,"="&amp;G7)</f>
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K7">
-        <f>COUNTIF(Testing!C:C,"=No") + COUNTIF(Testing!C:C,"=No (retest)") + COUNTIF(Testing!D:D,"=Yes") + COUNTIF(Testing!E:E,"=Yes") - COUNTIFS(Testing!C:C,"=No",Testing!D:D,"=Yes") - COUNTIFS(Testing!C:C,"=No (retest)",Testing!D:D,"=Yes") - COUNTIFS(Testing!C:C,"=No",Testing!E:E,"=Yes") - COUNTIFS(Testing!C:C,"=No (retest)",Testing!E:E,"=Yes") - COUNTIFS(Testing!D:D,"=Yes",Testing!E:E,"=Yes")</f>
+        <f>COUNTIF(Keep!J:J,"=No") + COUNTIF(Keep!J:J,"=No (retest)") + COUNTIF(Keep!K:K,"=Yes") + COUNTIF(Keep!L:L,"=Yes") - COUNTIFS(Keep!J:J,"=No",Keep!K:K,"=Yes") - COUNTIFS(Keep!J:J,"=No (retest)",Keep!K:K,"=Yes") - COUNTIFS(Keep!J:J,"=No",Keep!L:L,"=Yes") - COUNTIFS(Keep!J:J,"=No (retest)",Keep!L:L,"=Yes") - COUNTIFS(Keep!K:K,"=Yes",Keep!L:L,"=Yes")</f>
         <v>0</v>
       </c>
     </row>
@@ -4486,14 +4802,14 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8">
         <f>COUNTIF(Keep!D:D,"="&amp;E8)</f>
         <v>2</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K8">
         <f>K3-K6-K7</f>
@@ -4509,14 +4825,14 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9">
         <f>COUNTIF(Keep!D:D,"="&amp;E9)</f>
         <v>11</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="K9">
         <f>COUNTIF(Reject!H:H,"=Yes")</f>
@@ -4541,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="K11">
         <v>66</v>
@@ -4549,13 +4865,13 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -4563,22 +4879,22 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13">
         <f>COUNTIF(Keep!F:F,"="&amp;E13)</f>
         <v>15</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>81</v>
+        <v>272</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <f>COUNTIF(Keep!F:F,"="&amp;E14)</f>
@@ -4587,7 +4903,7 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <f>COUNTIF(Keep!F:F,"="&amp;E15)</f>
@@ -4596,7 +4912,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16">
         <f>COUNTIF(Keep!F:F,"="&amp;E16)</f>
@@ -4605,7 +4921,7 @@
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F17">
         <f>COUNTIF(Keep!F:F,"="&amp;E17)</f>
@@ -4614,7 +4930,7 @@
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <f>COUNTIF(Keep!F:F,"="&amp;E18)</f>
@@ -4623,7 +4939,7 @@
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F19">
         <f>COUNTIF(Keep!F:F,"="&amp;E19)</f>
@@ -4639,958 +4955,4 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4217636D-3F58-4C31-B7F4-A1FB83661293}">
-  <dimension ref="A1:H75"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="145.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
-    <col min="8" max="8" width="58.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>217</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>222</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>311</v>
-      </c>
-      <c r="B32" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>276</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>307</v>
-      </c>
-      <c r="C35" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>272</v>
-      </c>
-      <c r="B37" t="s">
-        <v>230</v>
-      </c>
-      <c r="C37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>251</v>
-      </c>
-      <c r="B38" t="s">
-        <v>266</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" t="s">
-        <v>253</v>
-      </c>
-      <c r="C40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" t="s">
-        <v>191</v>
-      </c>
-      <c r="C41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>265</v>
-      </c>
-      <c r="B42" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>264</v>
-      </c>
-      <c r="B43" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" t="s">
-        <v>233</v>
-      </c>
-      <c r="C44" t="s">
-        <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="s">
-        <v>194</v>
-      </c>
-      <c r="C48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" t="s">
-        <v>195</v>
-      </c>
-      <c r="C49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" t="s">
-        <v>290</v>
-      </c>
-      <c r="C52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" t="s">
-        <v>257</v>
-      </c>
-      <c r="C56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" t="s">
-        <v>271</v>
-      </c>
-      <c r="C57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" t="s">
-        <v>261</v>
-      </c>
-      <c r="C58" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" t="s">
-        <v>199</v>
-      </c>
-      <c r="C59" t="s">
-        <v>81</v>
-      </c>
-      <c r="F59" t="s">
-        <v>81</v>
-      </c>
-      <c r="H59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" t="s">
-        <v>249</v>
-      </c>
-      <c r="C60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" t="s">
-        <v>270</v>
-      </c>
-      <c r="C61" t="s">
-        <v>81</v>
-      </c>
-      <c r="F61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>269</v>
-      </c>
-      <c r="B62" t="s">
-        <v>262</v>
-      </c>
-      <c r="C62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>268</v>
-      </c>
-      <c r="B63" t="s">
-        <v>263</v>
-      </c>
-      <c r="C63" t="s">
-        <v>81</v>
-      </c>
-      <c r="F63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>299</v>
-      </c>
-      <c r="B65" t="s">
-        <v>225</v>
-      </c>
-      <c r="C65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>300</v>
-      </c>
-      <c r="B66" t="s">
-        <v>238</v>
-      </c>
-      <c r="C66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>301</v>
-      </c>
-      <c r="B67" t="s">
-        <v>226</v>
-      </c>
-      <c r="C67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>302</v>
-      </c>
-      <c r="B68" t="s">
-        <v>239</v>
-      </c>
-      <c r="C68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>303</v>
-      </c>
-      <c r="B69" t="s">
-        <v>286</v>
-      </c>
-      <c r="C69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>304</v>
-      </c>
-      <c r="B70" t="s">
-        <v>283</v>
-      </c>
-      <c r="C70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>305</v>
-      </c>
-      <c r="B71" t="s">
-        <v>288</v>
-      </c>
-      <c r="C71" t="s">
-        <v>81</v>
-      </c>
-      <c r="H71" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>306</v>
-      </c>
-      <c r="B72" t="s">
-        <v>289</v>
-      </c>
-      <c r="C72" t="s">
-        <v>81</v>
-      </c>
-      <c r="H72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>114</v>
-      </c>
-      <c r="B75" t="s">
-        <v>202</v>
-      </c>
-      <c r="C75" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H75" xr:uid="{4217636D-3F58-4C31-B7F4-A1FB83661293}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/WIP/High Stakes Gambling (Game Boy)/Docs/achievement_plan.xlsx
+++ b/WIP/High Stakes Gambling (Game Boy)/Docs/achievement_plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE03C0EB-4066-475F-AA75-0BE73C55E408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F1F64D-9320-48C7-9390-8FDB3BB8C9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28875" yWindow="180" windowWidth="28485" windowHeight="15435" xr2:uid="{31BE8862-275F-4D32-B8EC-607D115D47ED}"/>
+    <workbookView xWindow="-28485" yWindow="765" windowWidth="28485" windowHeight="15435" xr2:uid="{31BE8862-275F-4D32-B8EC-607D115D47ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Keep" sheetId="1" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1026,7 +1026,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1411,11 +1410,11 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1706,7 @@
         <v>251</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
         <v>80</v>
@@ -1739,7 +1738,7 @@
         <v>41</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
         <v>80</v>
@@ -1771,7 +1770,7 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
         <v>80</v>
@@ -2492,7 +2491,7 @@
       <c r="J32" t="s">
         <v>80</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="O32" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3028,7 +3027,7 @@
         <v>99</v>
       </c>
       <c r="H49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I49" t="s">
         <v>80</v>
@@ -4707,7 +4706,7 @@
       </c>
       <c r="C4">
         <f>COUNTIF(Keep!H:H,"="&amp;B4)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>89</v>
@@ -4721,7 +4720,7 @@
       </c>
       <c r="K4">
         <f>SUM(Keep!H:H)</f>
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -4730,7 +4729,7 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Keep!H:H,"="&amp;B5)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>128</v>
@@ -4776,7 +4775,7 @@
       </c>
       <c r="C7">
         <f>COUNTIF(Keep!H:H,"="&amp;B7)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>129</v>
@@ -4799,7 +4798,7 @@
       </c>
       <c r="C8">
         <f>COUNTIF(Keep!H:H,"="&amp;B8)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>93</v>

--- a/WIP/High Stakes Gambling (Game Boy)/Docs/achievement_plan.xlsx
+++ b/WIP/High Stakes Gambling (Game Boy)/Docs/achievement_plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F1F64D-9320-48C7-9390-8FDB3BB8C9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B559F231-689E-483C-AC76-CF5B4D9AE04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28485" yWindow="765" windowWidth="28485" windowHeight="15435" xr2:uid="{31BE8862-275F-4D32-B8EC-607D115D47ED}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="305">
   <si>
     <t>Name</t>
   </si>
@@ -834,18 +834,12 @@
     <t>Other Issue?</t>
   </si>
   <si>
-    <t>test if this can be done without PauseLock</t>
-  </si>
-  <si>
     <t>test if this can be done without PauseLock (start condition + Reset), add Trigger?</t>
   </si>
   <si>
     <t>Slots - Purchase a bonus item (on Spin 3 or 7), place it (with the D-pad), and win the line</t>
   </si>
   <si>
-    <t>needs reworking b/c strat is just bet everywhere, fixed: Any Craps (bet not removed on win) not counted</t>
-  </si>
-  <si>
     <t>[Practice] Video Poker - Hold at least one card and get a higher-scoring hand on the 2nd draw (one pair doesn't score unless Jacks or better)</t>
   </si>
   <si>
@@ -930,10 +924,6 @@
     <t>Video Poker - Have at least 3 Joker cards at the end of the hand (Competitive Mode only)</t>
   </si>
   <si>
-    <t>false trigger when opponent is doing Swap Card evaluation if there are 3+ jokers total (fixed by checking at end of hand)
-triggered when played 2nd joker (opponent had 1 joker as well) - unable to reproduce</t>
-  </si>
-  <si>
     <t>merged into Ready to Take a Stand</t>
   </si>
   <si>
@@ -956,6 +946,13 @@
   </si>
   <si>
     <t>unable to get working (false trigger b/c "Player's Last Actual Bet Amount" isn't cleared from previous hand/draw)</t>
+  </si>
+  <si>
+    <t>(fixed by checking at end of hand) false trigger when opponent is doing Swap Card evaluation if there are 3+ jokers total
+(unable to reproduce) triggered when played 2nd joker (opponent had 1 joker as well)</t>
+  </si>
+  <si>
+    <t>needs reworking b/c strat is just bet everywhere, (fixed) Any Craps (bet not removed on win) not counted</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1026,6 +1023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1414,7 +1412,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
         <v>236</v>
@@ -1519,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
         <v>239</v>
@@ -1554,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
         <v>237</v>
@@ -1586,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
         <v>238</v>
@@ -1604,7 +1602,7 @@
         <v>29</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
         <v>136</v>
@@ -1621,10 +1619,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
         <v>182</v>
@@ -1656,10 +1654,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D7" t="s">
         <v>182</v>
@@ -1688,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C8" t="s">
         <v>200</v>
@@ -2369,19 +2367,16 @@
       <c r="M28" t="s">
         <v>80</v>
       </c>
-      <c r="N28" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C29" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D29" t="s">
         <v>90</v>
@@ -2439,7 +2434,7 @@
         <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D31" t="s">
         <v>90</v>
@@ -2468,7 +2463,7 @@
         <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D32" t="s">
         <v>90</v>
@@ -2491,8 +2486,8 @@
       <c r="J32" t="s">
         <v>80</v>
       </c>
-      <c r="O32" t="s">
-        <v>297</v>
+      <c r="O32" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2911,7 +2906,7 @@
         <v>80</v>
       </c>
       <c r="N45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2922,7 +2917,7 @@
         <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D46" t="s">
         <v>93</v>
@@ -3262,7 +3257,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C57" t="s">
         <v>223</v>
@@ -3291,7 +3286,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C58" t="s">
         <v>231</v>
@@ -3320,7 +3315,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C59" t="s">
         <v>232</v>
@@ -3335,7 +3330,7 @@
         <v>72</v>
       </c>
       <c r="G59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -3352,7 +3347,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C60" t="s">
         <v>233</v>
@@ -3384,10 +3379,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C61" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D61" t="s">
         <v>182</v>
@@ -3413,10 +3408,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C62" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D62" t="s">
         <v>182</v>
@@ -3445,10 +3440,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C63" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D63" t="s">
         <v>182</v>
@@ -3469,7 +3464,7 @@
         <v>80</v>
       </c>
       <c r="O63" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -3477,10 +3472,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D64" t="s">
         <v>182</v>
@@ -4520,12 +4515,12 @@
         <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s">
         <v>186</v>
@@ -4546,7 +4541,7 @@
         <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -4572,7 +4567,7 @@
         <v>80</v>
       </c>
       <c r="I36" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -4601,7 +4596,7 @@
         <v>80</v>
       </c>
       <c r="I37" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -4627,7 +4622,7 @@
         <v>80</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -4683,7 +4678,7 @@
       </c>
       <c r="C3">
         <f>COUNTIF(Keep!H:H,"="&amp;B3)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>182</v>
@@ -4706,7 +4701,7 @@
       </c>
       <c r="C4">
         <f>COUNTIF(Keep!H:H,"="&amp;B4)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>89</v>
@@ -4720,7 +4715,7 @@
       </c>
       <c r="K4">
         <f>SUM(Keep!H:H)</f>
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -4831,7 +4826,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K9">
         <f>COUNTIF(Reject!H:H,"=Yes")</f>
@@ -4856,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K11">
         <v>66</v>
@@ -4870,7 +4865,7 @@
         <v>120</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K12">
         <v>11</v>
@@ -4885,7 +4880,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>80</v>

--- a/WIP/High Stakes Gambling (Game Boy)/Docs/achievement_plan.xlsx
+++ b/WIP/High Stakes Gambling (Game Boy)/Docs/achievement_plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B559F231-689E-483C-AC76-CF5B4D9AE04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB585B6-C629-4514-83AB-4BB39A31ADA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28485" yWindow="765" windowWidth="28485" windowHeight="15435" xr2:uid="{31BE8862-275F-4D32-B8EC-607D115D47ED}"/>
   </bookViews>
@@ -1011,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1023,7 +1023,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1412,7 +1411,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,7 +2485,7 @@
       <c r="J32" t="s">
         <v>80</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="O32" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2833,7 +2832,7 @@
         <v>101</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I43" t="s">
         <v>80</v>
@@ -2862,7 +2861,7 @@
         <v>101</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" t="s">
         <v>136</v>
@@ -4715,7 +4714,7 @@
       </c>
       <c r="K4">
         <f>SUM(Keep!H:H)</f>
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -4724,7 +4723,7 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Keep!H:H,"="&amp;B5)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>128</v>
@@ -4747,7 +4746,7 @@
       </c>
       <c r="C6">
         <f>COUNTIF(Keep!H:H,"="&amp;B6)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>91</v>
